--- a/Recycling/SG2/SG2_Max.xlsx
+++ b/Recycling/SG2/SG2_Max.xlsx
@@ -1014,7 +1014,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.09520144131695532</v>
+        <v>0.08670714172353318</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1040,7 +1040,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.003939302994485862</v>
+        <v>0.007814473479586161</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1095,7 +1095,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="C7">
-        <v>0.05444909143351601</v>
+        <v>0.054449091433516</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1133,7 +1133,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="G8">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.0954325174018955</v>
+        <v>0.08711869870625603</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1258,7 +1258,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.003833884152788057</v>
+        <v>0.00762671774353707</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1348,10 +1348,10 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="F8">
-        <v>0.04000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G8">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1450,7 +1450,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1034404382440092</v>
+        <v>0.1028962528139603</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1476,7 +1476,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.000180603720060062</v>
+        <v>0.0004288656625255583</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1531,7 +1531,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="C7">
-        <v>0.05444909143351601</v>
+        <v>0.05444909143351602</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1554,13 +1554,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="C8">
         <v>0.2764705882352941</v>
       </c>
       <c r="D8">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="E8">
         <v>0.07999999999999996</v>
@@ -1569,7 +1569,7 @@
         <v>0.04000000000000003</v>
       </c>
       <c r="G8">
-        <v>0.09999999999999996</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1668,7 +1668,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1033724093435268</v>
+        <v>0.10273570485018</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1694,7 +1694,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.0002116390731676128</v>
+        <v>0.0005021089857497892</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1781,7 +1781,7 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="E8">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="F8">
         <v>0.04000000000000004</v>
@@ -1886,7 +1886,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1033001716182348</v>
+        <v>0.1025655412608422</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1912,7 +1912,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.00024459452733819</v>
+        <v>0.0005797390377379896</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1990,7 +1990,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="C8">
         <v>0.2764705882352941</v>
@@ -1999,13 +1999,13 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="E8">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="F8">
         <v>0.04000000000000004</v>
       </c>
       <c r="G8">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -2104,7 +2104,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1032259400647085</v>
+        <v>0.1023910203850967</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -2130,7 +2130,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.0002784595826172553</v>
+        <v>0.0006593569202113744</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -2159,7 +2159,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -2208,7 +2208,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="C8">
         <v>0.2764705882352941</v>
@@ -2223,7 +2223,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="G8">
-        <v>0.09999999999999996</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -2322,7 +2322,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.103151486820271</v>
+        <v>0.1022163228450164</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -2348,7 +2348,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.0003124257751433265</v>
+        <v>0.0007390553984311613</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -2377,7 +2377,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -2403,7 +2403,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="C7">
-        <v>0.054449091433516</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -2432,7 +2432,7 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="D8">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="E8">
         <v>0.07999999999999996</v>
@@ -2540,7 +2540,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1030781798739871</v>
+        <v>0.1020446511203467</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -2566,7 +2566,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.0003458690168688926</v>
+        <v>0.0008173734743654296</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -2595,7 +2595,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -2618,10 +2618,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="C7">
-        <v>0.054449091433516</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -2644,7 +2644,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="C8">
         <v>0.2764705882352941</v>
@@ -2659,7 +2659,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="G8">
-        <v>0.09999999999999999</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1030070360926734</v>
+        <v>0.1018783631271352</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -2784,7 +2784,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.0003783254046514525</v>
+        <v>0.0008932354470016448</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -2813,7 +2813,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -2836,7 +2836,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="C7">
         <v>0.05444909143351601</v>
@@ -2868,10 +2868,10 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="D8">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="E8">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="F8">
         <v>0.04000000000000004</v>
@@ -2976,7 +2976,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.102938775841557</v>
+        <v>0.101719108568828</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -3002,7 +3002,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.0004094663018522923</v>
+        <v>0.0009658887078364458</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -3054,10 +3054,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="C7">
-        <v>0.05444909143351601</v>
+        <v>0.05444909143351602</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -3095,7 +3095,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="G8">
-        <v>0.1</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -3194,7 +3194,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1028738696826127</v>
+        <v>0.1015679452485709</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -3220,7 +3220,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.0004390770341646593</v>
+        <v>0.001034850678231688</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -3249,7 +3249,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -3313,7 +3313,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="G8">
-        <v>0.09999999999999996</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -3630,7 +3630,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1028125595668169</v>
+        <v>0.1014253944541564</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -3656,7 +3656,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.0004670472215305668</v>
+        <v>0.001099883542338644</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -3685,7 +3685,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="C7">
         <v>0.05444909143351601</v>
@@ -3734,7 +3734,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="C8">
         <v>0.2764705882352941</v>
@@ -3848,7 +3848,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1027548074789041</v>
+        <v>0.1012913268853769</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -3874,7 +3874,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.0004933942068318259</v>
+        <v>0.001161046287992891</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -3903,7 +3903,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -3929,7 +3929,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="C7">
-        <v>0.054449091433516</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -3952,7 +3952,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="C8">
         <v>0.2764705882352941</v>
@@ -4066,7 +4066,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1027000375251721</v>
+        <v>0.1011643703894355</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -4092,7 +4092,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.0005183807175898138</v>
+        <v>0.0012189649027713</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -4121,7 +4121,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -4170,7 +4170,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="C8">
         <v>0.2764705882352941</v>
@@ -4182,7 +4182,7 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="F8">
-        <v>0.04000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G8">
         <v>0.09999999999999998</v>
@@ -4284,7 +4284,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1026463053048244</v>
+        <v>0.1010399970185366</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -4310,7 +4310,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.0005428938057026595</v>
+        <v>0.001275705074310946</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -4397,13 +4397,13 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="E8">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="F8">
         <v>0.04000000000000004</v>
       </c>
       <c r="G8">
-        <v>0.09999999999999996</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -4502,7 +4502,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1025879452100409</v>
+        <v>0.100905110415399</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -4528,7 +4528,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.000569518168821174</v>
+        <v>0.001337241470286321</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -4557,7 +4557,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -4580,10 +4580,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="C7">
-        <v>0.05444909143351599</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -4606,7 +4606,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="C8">
         <v>0.2764705882352941</v>
@@ -4615,13 +4615,13 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="E8">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="F8">
         <v>0.04000000000000004</v>
       </c>
       <c r="G8">
-        <v>0.1</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -4720,7 +4720,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1025093595636404</v>
+        <v>0.1007238031703567</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -4746,7 +4746,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.0006053695976687815</v>
+        <v>0.00141995535116552</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -4801,7 +4801,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="C7">
-        <v>0.05444909143351602</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -4824,7 +4824,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="C8">
         <v>0.2764705882352941</v>
@@ -4836,7 +4836,7 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="F8">
-        <v>0.04000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G8">
         <v>0.09999999999999999</v>
@@ -4938,7 +4938,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.102369867712504</v>
+        <v>0.1004028966538575</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -4964,7 +4964,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.0006690069462801064</v>
+        <v>0.001566355586704328</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -5057,7 +5057,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="G8">
-        <v>0.09999999999999996</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -5156,7 +5156,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1020776582383963</v>
+        <v>0.09973444393662148</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -5182,7 +5182,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.0008023153511785869</v>
+        <v>0.001871309304433347</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -5237,7 +5237,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="C7">
-        <v>0.05444909143351601</v>
+        <v>0.054449091433516</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -5269,7 +5269,7 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="E8">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="F8">
         <v>0.04000000000000004</v>
@@ -5374,7 +5374,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1015682446413383</v>
+        <v>0.0985812226199182</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -5400,7 +5400,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.001034714092748327</v>
+        <v>0.002397418509804171</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -5429,7 +5429,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -5484,16 +5484,16 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="D8">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="E8">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="F8">
         <v>0.04000000000000004</v>
       </c>
       <c r="G8">
-        <v>0.1</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -5592,7 +5592,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1014436323630872</v>
+        <v>0.0983013714855564</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -5618,7 +5618,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.001091563255819261</v>
+        <v>0.002525088936797406</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -5702,16 +5702,16 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="D8">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="E8">
         <v>0.07999999999999996</v>
       </c>
       <c r="F8">
-        <v>0.04000000000000004</v>
+        <v>0.04000000000000003</v>
       </c>
       <c r="G8">
-        <v>0.09999999999999996</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -6028,7 +6028,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1023229099438716</v>
+        <v>0.1002947941113718</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -6054,7 +6054,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.0006904294728873975</v>
+        <v>0.001615672870301117</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -6083,7 +6083,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -6106,10 +6106,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="C7">
-        <v>0.054449091433516</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -6141,13 +6141,13 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="E8">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="F8">
         <v>0.04000000000000004</v>
       </c>
       <c r="G8">
-        <v>0.1</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -6246,7 +6246,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1028527248186734</v>
+        <v>0.1015175979411343</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -6272,7 +6272,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.0004487234978604704</v>
+        <v>0.001057819540777329</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -6324,10 +6324,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="C7">
-        <v>0.054449091433516</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -6356,13 +6356,13 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="D8">
+        <v>0.07999999999999997</v>
+      </c>
+      <c r="E8">
         <v>0.07999999999999996</v>
       </c>
-      <c r="E8">
-        <v>0.07999999999999995</v>
-      </c>
       <c r="F8">
-        <v>0.04000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G8">
         <v>0.09999999999999998</v>
@@ -6464,7 +6464,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.102397088569476</v>
+        <v>0.100461432003888</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -6490,7 +6490,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.0006565885637687736</v>
+        <v>0.001539651270677035</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -6568,7 +6568,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="C8">
         <v>0.2764705882352941</v>
@@ -6577,13 +6577,13 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="E8">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="F8">
         <v>0.04000000000000004</v>
       </c>
       <c r="G8">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -6682,7 +6682,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1017985496959826</v>
+        <v>0.0990876650551623</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -6708,7 +6708,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.0009296470015171511</v>
+        <v>0.0021663752370922</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -6737,7 +6737,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -6760,10 +6760,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="C7">
-        <v>0.054449091433516</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -6795,13 +6795,13 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="E8">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="F8">
         <v>0.04000000000000004</v>
       </c>
       <c r="G8">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -6900,7 +6900,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1011606301223926</v>
+        <v>0.09762851090649556</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -6926,7 +6926,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.001220671243864135</v>
+        <v>0.002832053557939712</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -6955,7 +6955,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -6981,7 +6981,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="C7">
-        <v>0.054449091433516</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -7004,7 +7004,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="C8">
         <v>0.2764705882352941</v>
@@ -7118,7 +7118,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1004273363434451</v>
+        <v>0.09593445185133395</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -7144,7 +7144,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.001555205996003754</v>
+        <v>0.003604897460886435</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -7173,7 +7173,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -7199,7 +7199,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="C7">
-        <v>0.05444909143351601</v>
+        <v>0.054449091433516</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -7231,7 +7231,7 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="E8">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="F8">
         <v>0.04000000000000004</v>
@@ -7336,7 +7336,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.09990063148628417</v>
+        <v>0.09458985731570362</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -7362,7 +7362,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.001795493154983809</v>
+        <v>0.004218312728572161</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -7440,13 +7440,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="C8">
         <v>0.2764705882352941</v>
       </c>
       <c r="D8">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="E8">
         <v>0.07999999999999996</v>
@@ -7554,7 +7554,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.09945892857177395</v>
+        <v>0.09320124682821199</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -7580,7 +7580,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.001997001717128028</v>
+        <v>0.00485180844146123</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -7632,10 +7632,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.0501611098589074</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="C7">
-        <v>0.05444909143351601</v>
+        <v>0.054449091433516</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -7772,7 +7772,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.09787097287017403</v>
+        <v>0.08917279485062421</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -7798,7 +7798,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.002721440383177913</v>
+        <v>0.006689621910658986</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -7876,13 +7876,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="C8">
         <v>0.2764705882352941</v>
       </c>
       <c r="D8">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="E8">
         <v>0.07999999999999996</v>
@@ -7990,7 +7990,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.09465736389698098</v>
+        <v>0.08184194410746023</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -8016,7 +8016,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.004187515661852419</v>
+        <v>0.01003401730408067</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -8045,7 +8045,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -8068,7 +8068,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890743</v>
       </c>
       <c r="C7">
         <v>0.05444909143351601</v>
@@ -8094,13 +8094,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="C8">
         <v>0.2764705882352941</v>
       </c>
       <c r="D8">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="E8">
         <v>0.07999999999999996</v>
@@ -8109,7 +8109,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="G8">
-        <v>0.1</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -8426,7 +8426,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.0916476797801299</v>
+        <v>0.07527622480232496</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -8452,7 +8452,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.005560558716294277</v>
+        <v>0.01302935333913368</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -8530,16 +8530,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="C8">
         <v>0.2764705882352941</v>
       </c>
       <c r="D8">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="E8">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="F8">
         <v>0.04000000000000004</v>
@@ -8644,7 +8644,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.08876680458507348</v>
+        <v>0.06952250819791879</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -8670,7 +8670,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.006874838063797552</v>
+        <v>0.01565424695394008</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -8722,7 +8722,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="C7">
         <v>0.05444909143351601</v>
@@ -8748,13 +8748,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="C8">
         <v>0.2764705882352941</v>
       </c>
       <c r="D8">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="E8">
         <v>0.07999999999999996</v>
@@ -8763,7 +8763,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="G8">
-        <v>0.09999999999999999</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -8862,7 +8862,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.08741347396841989</v>
+        <v>0.06767341105338645</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -8888,7 +8888,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.007492238804677921</v>
+        <v>0.01649782052934397</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -8940,10 +8940,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="C7">
-        <v>0.05444909143351601</v>
+        <v>0.05444909143351602</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -8981,7 +8981,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="G8">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999995</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -9080,7 +9080,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.08779726241260644</v>
+        <v>0.06927650676313736</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -9106,7 +9106,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.007317151308048296</v>
+        <v>0.01576647486500828</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -9135,7 +9135,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -9184,7 +9184,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="C8">
         <v>0.2764705882352941</v>
@@ -9193,10 +9193,10 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="E8">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="F8">
-        <v>0.04000000000000004</v>
+        <v>0.04000000000000003</v>
       </c>
       <c r="G8">
         <v>0.09999999999999998</v>
@@ -9298,7 +9298,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.0866306455387692</v>
+        <v>0.06752666506181797</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -9324,7 +9324,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.007849371678567724</v>
+        <v>0.01656476727746353</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -9376,7 +9376,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="C7">
         <v>0.05444909143351601</v>
@@ -9516,7 +9516,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.0869057300430663</v>
+        <v>0.06912470217031584</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -9542,7 +9542,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.007723875828058028</v>
+        <v>0.01583572938930834</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -9571,7 +9571,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -9597,7 +9597,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="C7">
-        <v>0.05444909143351601</v>
+        <v>0.05444909143351602</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -9734,7 +9734,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.08967719248635934</v>
+        <v>0.07531671910044004</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -9760,7 +9760,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.006459511492577093</v>
+        <v>0.01301087950180965</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -9789,7 +9789,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -9815,7 +9815,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="C7">
-        <v>0.05444909143351599</v>
+        <v>0.05444909143351602</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -9838,13 +9838,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="C8">
         <v>0.2764705882352941</v>
       </c>
       <c r="D8">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="E8">
         <v>0.07999999999999996</v>
@@ -9853,7 +9853,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="G8">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -9952,7 +9952,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.09390937481539417</v>
+        <v>0.08376150430949737</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -9978,7 +9978,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.004528754533905761</v>
+        <v>0.009158297892786542</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -10056,7 +10056,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="C8">
         <v>0.2764705882352941</v>
@@ -10071,7 +10071,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="G8">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -10170,7 +10170,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.09606837795865397</v>
+        <v>0.08838500066327354</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -10196,7 +10196,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.003543799251132597</v>
+        <v>0.007049020204724222</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -10225,7 +10225,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -10248,7 +10248,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="C7">
         <v>0.05444909143351601</v>
@@ -10388,7 +10388,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.0958690873916825</v>
+        <v>0.08811287429327815</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -10414,7 +10414,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.003634717273812743</v>
+        <v>0.007173166529636068</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -10443,7 +10443,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -10469,7 +10469,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="C7">
-        <v>0.054449091433516</v>
+        <v>0.05444909143351602</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -10492,7 +10492,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="C8">
         <v>0.2764705882352941</v>
@@ -10507,7 +10507,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="G8">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -10824,7 +10824,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.09572270040822364</v>
+        <v>0.08786472098704391</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -10850,7 +10850,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.003701500239431465</v>
+        <v>0.007286376142450244</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -10928,22 +10928,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="C8">
         <v>0.2764705882352941</v>
       </c>
       <c r="D8">
+        <v>0.07999999999999997</v>
+      </c>
+      <c r="E8">
         <v>0.07999999999999996</v>
-      </c>
-      <c r="E8">
-        <v>0.07999999999999997</v>
       </c>
       <c r="F8">
         <v>0.04000000000000004</v>
       </c>
       <c r="G8">
-        <v>0.09999999999999996</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -11042,7 +11042,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.09571323935398338</v>
+        <v>0.08785195595601121</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -11068,7 +11068,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.003705816451468334</v>
+        <v>0.007292199656320371</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -11097,7 +11097,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -11120,10 +11120,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="C7">
-        <v>0.054449091433516</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -11152,10 +11152,10 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="D8">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="E8">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="F8">
         <v>0.04000000000000004</v>
@@ -11260,7 +11260,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.09569619870078239</v>
+        <v>0.08780527350646178</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -11286,7 +11286,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.003713590539914933</v>
+        <v>0.00731349658006041</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -11315,7 +11315,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -11364,7 +11364,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="C8">
         <v>0.2764705882352941</v>
@@ -11373,13 +11373,13 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="E8">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="F8">
         <v>0.04000000000000004</v>
       </c>
       <c r="G8">
-        <v>0.09999999999999996</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -11478,7 +11478,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.0956742328096109</v>
+        <v>0.08774625914890302</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -11504,7 +11504,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.003723611563097664</v>
+        <v>0.007340419423326487</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -11556,10 +11556,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.05016110985890743</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="C7">
-        <v>0.054449091433516</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -11582,7 +11582,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="C8">
         <v>0.2764705882352941</v>
@@ -11591,13 +11591,13 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="E8">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="F8">
         <v>0.04000000000000004</v>
       </c>
       <c r="G8">
-        <v>0.09999999999999996</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -11696,7 +11696,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.09565959922564581</v>
+        <v>0.08770946743510273</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -11722,7 +11722,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.003730287526436259</v>
+        <v>0.007357204110733273</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -11751,7 +11751,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -11774,7 +11774,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="C7">
         <v>0.05444909143351601</v>
@@ -11800,7 +11800,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="C8">
         <v>0.2764705882352941</v>
@@ -11809,7 +11809,7 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="E8">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="F8">
         <v>0.04000000000000004</v>
@@ -11914,7 +11914,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.09565897518886973</v>
+        <v>0.08771146056820731</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -11940,7 +11940,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.003730572217230325</v>
+        <v>0.007356294826748784</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -11969,7 +11969,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -11995,7 +11995,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="C7">
-        <v>0.05444909143351601</v>
+        <v>0.054449091433516</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -12027,7 +12027,7 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="E8">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="F8">
         <v>0.04000000000000003</v>
@@ -12132,7 +12132,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.09565747956236963</v>
+        <v>0.08770529179308657</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -12158,7 +12158,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.003731254534542807</v>
+        <v>0.007359109073528551</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -12210,10 +12210,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="C7">
-        <v>0.05444909143351601</v>
+        <v>0.05444909143351602</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -12245,7 +12245,7 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="E8">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="F8">
         <v>0.04000000000000004</v>
@@ -12350,7 +12350,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.09563997619595076</v>
+        <v>0.08764848744269324</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -12376,7 +12376,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.0037392397166276</v>
+        <v>0.007385023693050564</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -12431,7 +12431,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="C7">
-        <v>0.05444909143351601</v>
+        <v>0.054449091433516</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -12469,7 +12469,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="G8">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -12568,7 +12568,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.09561967222364878</v>
+        <v>0.08758277767873386</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -12594,7 +12594,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.003748502558528748</v>
+        <v>0.007415001036688824</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -12672,22 +12672,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="C8">
         <v>0.2764705882352941</v>
       </c>
       <c r="D8">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="E8">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="F8">
-        <v>0.04000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G8">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -12786,7 +12786,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.09560427378097985</v>
+        <v>0.0875299905523954</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -12812,7 +12812,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.003755527456802104</v>
+        <v>0.007439082965013846</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -12864,7 +12864,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.05016110985890743</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="C7">
         <v>0.05444909143351601</v>
@@ -12905,7 +12905,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="G8">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -13222,7 +13222,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.09558563782228043</v>
+        <v>0.08746042625000131</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -13248,7 +13248,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.003764029336953519</v>
+        <v>0.007470818781309152</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -13300,7 +13300,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="C7">
         <v>0.05444909143351601</v>
@@ -13341,7 +13341,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="G8">
-        <v>0.09999999999999999</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -13440,7 +13440,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.09554559817225151</v>
+        <v>0.0873061536189859</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -13466,7 +13466,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.003782295760019875</v>
+        <v>0.007541199245265544</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -13544,13 +13544,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="C8">
         <v>0.2764705882352941</v>
       </c>
       <c r="D8">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="E8">
         <v>0.07999999999999996</v>
@@ -13658,7 +13658,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.09538569969668352</v>
+        <v>0.08670718957461693</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -13684,7 +13684,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.003855242781292052</v>
+        <v>0.00781445164952174</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -13736,7 +13736,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="C7">
         <v>0.05444909143351601</v>
@@ -13762,22 +13762,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="C8">
         <v>0.2764705882352941</v>
       </c>
       <c r="D8">
+        <v>0.07999999999999996</v>
+      </c>
+      <c r="E8">
         <v>0.07999999999999997</v>
-      </c>
-      <c r="E8">
-        <v>0.07999999999999996</v>
       </c>
       <c r="F8">
         <v>0.04000000000000004</v>
       </c>
       <c r="G8">
-        <v>0.09999999999999999</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -13876,7 +13876,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.09467779488086382</v>
+        <v>0.08419047005880079</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -13902,7 +13902,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.004178194876206288</v>
+        <v>0.008962600131889719</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -13931,7 +13931,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -13957,7 +13957,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="C7">
-        <v>0.05444909143351601</v>
+        <v>0.054449091433516</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -13986,7 +13986,7 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="D8">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="E8">
         <v>0.07999999999999996</v>
@@ -13995,7 +13995,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="G8">
-        <v>0.09999999999999995</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -14094,7 +14094,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.09390048453057133</v>
+        <v>0.08165850430983555</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -14120,7 +14120,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.004532810356162883</v>
+        <v>0.01011770407327567</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -14149,7 +14149,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -14175,7 +14175,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="C7">
-        <v>0.05444909143351601</v>
+        <v>0.054449091433516</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -14198,7 +14198,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="C8">
         <v>0.2764705882352941</v>
@@ -14312,7 +14312,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.09355492518517451</v>
+        <v>0.08055171531422071</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -14338,7 +14338,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.004690457418337301</v>
+        <v>0.01062263046560138</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -14367,7 +14367,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -14390,7 +14390,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="C7">
         <v>0.05444909143351601</v>
@@ -14416,7 +14416,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="C8">
         <v>0.2764705882352941</v>
@@ -14431,7 +14431,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="G8">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -14530,7 +14530,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.093460567733663</v>
+        <v>0.08003071472105393</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -14556,7 +14556,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.00473350407652556</v>
+        <v>0.01086031529166086</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -14585,7 +14585,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -14608,7 +14608,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="C7">
         <v>0.05444909143351601</v>
@@ -14640,7 +14640,7 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="D8">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="E8">
         <v>0.07999999999999996</v>
@@ -14649,7 +14649,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="G8">
-        <v>0.09999999999999996</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -14748,7 +14748,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.09347089298158057</v>
+        <v>0.07905097710613132</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -14774,7 +14774,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.004728793612108624</v>
+        <v>0.01130727978199162</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -14803,7 +14803,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -14858,7 +14858,7 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="D8">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="E8">
         <v>0.07999999999999996</v>
@@ -14867,7 +14867,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="G8">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -14966,7 +14966,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.09491560244197876</v>
+        <v>0.07927360830015334</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -14992,7 +14992,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.004069705078803811</v>
+        <v>0.01120571357012821</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -15021,7 +15021,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -15079,13 +15079,13 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="E8">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="F8">
         <v>0.04000000000000004</v>
       </c>
       <c r="G8">
-        <v>0.09999999999999998</v>
+        <v>0.1</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -15184,7 +15184,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1006095426259679</v>
+        <v>0.09875945981877607</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -15210,7 +15210,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.001472081966710126</v>
+        <v>0.002316105209659227</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -15303,7 +15303,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="G8">
-        <v>0.09999999999999999</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -15620,7 +15620,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1004061959455148</v>
+        <v>0.09986387647108176</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -15646,7 +15646,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.001564850422268859</v>
+        <v>0.001812261100183449</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -15675,7 +15675,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -15730,16 +15730,16 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="D8">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="E8">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="F8">
-        <v>0.04000000000000004</v>
+        <v>0.04000000000000003</v>
       </c>
       <c r="G8">
-        <v>0.09999999999999999</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -15838,7 +15838,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.09999453281829231</v>
+        <v>0.09841982911219072</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -15864,7 +15864,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.001752654582326056</v>
+        <v>0.002471047577245665</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -15942,7 +15942,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="C8">
         <v>0.2764705882352941</v>
@@ -15951,13 +15951,13 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="E8">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="F8">
         <v>0.04000000000000004</v>
       </c>
       <c r="G8">
-        <v>0.09999999999999996</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -16056,7 +16056,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.09919073500400581</v>
+        <v>0.09584453327057847</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -16082,7 +16082,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.002119353864786419</v>
+        <v>0.00364591906912776</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -16111,7 +16111,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -16134,10 +16134,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.05016110985890743</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="C7">
-        <v>0.05444909143351601</v>
+        <v>0.054449091433516</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -16160,7 +16160,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="C8">
         <v>0.2764705882352941</v>
@@ -16169,13 +16169,13 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="E8">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="F8">
         <v>0.04000000000000004</v>
       </c>
       <c r="G8">
-        <v>0.09999999999999996</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -16274,7 +16274,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.09774587355274238</v>
+        <v>0.09238292205941932</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -16300,7 +16300,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.002778511737594548</v>
+        <v>0.005225135042009629</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -16329,7 +16329,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -16352,10 +16352,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.0501611098589074</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="C7">
-        <v>0.054449091433516</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -16378,13 +16378,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="C8">
         <v>0.2764705882352941</v>
       </c>
       <c r="D8">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="E8">
         <v>0.07999999999999996</v>
@@ -16393,7 +16393,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="G8">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -16492,7 +16492,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.09624351356055615</v>
+        <v>0.08920443501018283</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -16518,7 +16518,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.003463900925447548</v>
+        <v>0.00667518740536318</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -16547,7 +16547,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -16570,10 +16570,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="C7">
-        <v>0.05444909143351601</v>
+        <v>0.054449091433516</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -16605,13 +16605,13 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="E8">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="F8">
         <v>0.04000000000000004</v>
       </c>
       <c r="G8">
-        <v>0.09999999999999999</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -16710,7 +16710,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.0956162388533594</v>
+        <v>0.08772317466048719</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -16736,7 +16736,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.003750068890757025</v>
+        <v>0.00735095075992332</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -16820,7 +16820,7 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="D8">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="E8">
         <v>0.07999999999999996</v>
@@ -16829,7 +16829,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="G8">
-        <v>0.09999999999999999</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -16928,7 +16928,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.09560316686945981</v>
+        <v>0.08762288154354429</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -16954,7 +16954,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.003756032439091095</v>
+        <v>0.007396705318302321</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -17006,7 +17006,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890743</v>
       </c>
       <c r="C7">
         <v>0.05444909143351601</v>
@@ -17038,7 +17038,7 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="D8">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="E8">
         <v>0.07999999999999996</v>
@@ -17047,7 +17047,7 @@
         <v>0.04000000000000003</v>
       </c>
       <c r="G8">
-        <v>0.09999999999999996</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -17146,7 +17146,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.09562536469788838</v>
+        <v>0.08763656264724612</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -17172,7 +17172,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.003745905604192746</v>
+        <v>0.007390463884422353</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -17224,7 +17224,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="C7">
         <v>0.05444909143351601</v>
@@ -17250,13 +17250,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="C8">
         <v>0.2764705882352941</v>
       </c>
       <c r="D8">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="E8">
         <v>0.07999999999999996</v>
@@ -17265,7 +17265,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="G8">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -17364,7 +17364,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.09560260616342146</v>
+        <v>0.08752469227470927</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -17390,7 +17390,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.003756288237873163</v>
+        <v>0.007441500083586752</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -17419,7 +17419,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -17445,7 +17445,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="C7">
-        <v>0.054449091433516</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -17477,13 +17477,13 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="E8">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="F8">
         <v>0.04000000000000004</v>
       </c>
       <c r="G8">
-        <v>0.09999999999999996</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -17582,7 +17582,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.09557032151063634</v>
+        <v>0.08728985305051541</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -17608,7 +17608,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.003771016766366743</v>
+        <v>0.007548635700871153</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -17695,13 +17695,13 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="E8">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="F8">
         <v>0.04000000000000004</v>
       </c>
       <c r="G8">
-        <v>0.09999999999999999</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -18018,7 +18018,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.09555589050207614</v>
+        <v>0.08684743935515134</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -18044,7 +18044,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.003777600313112152</v>
+        <v>0.007750468527182883</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -18096,7 +18096,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="C7">
         <v>0.05444909143351601</v>
@@ -18122,7 +18122,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="C8">
         <v>0.2764705882352941</v>
@@ -18137,7 +18137,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="G8">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -18236,7 +18236,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.09553885326000143</v>
+        <v>0.08701159346023996</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -18262,7 +18262,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.003785372845374426</v>
+        <v>0.007675580052147211</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -18291,7 +18291,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -18314,7 +18314,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.05016110985890741</v>
+        <v>0.0501611098589074</v>
       </c>
       <c r="C7">
         <v>0.05444909143351601</v>
@@ -18454,7 +18454,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.09548924034437335</v>
+        <v>0.08706482681758602</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -18480,7 +18480,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.003808006672237632</v>
+        <v>0.007651294549506127</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -18509,7 +18509,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -18558,7 +18558,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="C8">
         <v>0.2764705882352941</v>
@@ -18573,7 +18573,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="G8">
-        <v>0.09999999999999996</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -18672,7 +18672,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.09546092287067773</v>
+        <v>0.08706823539507666</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -18698,7 +18698,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.003820925340465775</v>
+        <v>0.007649739527959905</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -18750,10 +18750,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="C7">
-        <v>0.054449091433516</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -18785,7 +18785,7 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="E8">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="F8">
         <v>0.04000000000000004</v>
@@ -18890,7 +18890,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.09546217540773742</v>
+        <v>0.08706524841460694</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -18916,7 +18916,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.003820353922588198</v>
+        <v>0.007651102213420713</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -18945,7 +18945,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -18968,10 +18968,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="C7">
-        <v>0.054449091433516</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -18994,7 +18994,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="C8">
         <v>0.2764705882352941</v>
@@ -19006,7 +19006,7 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="F8">
-        <v>0.04000000000000004</v>
+        <v>0.04000000000000003</v>
       </c>
       <c r="G8">
         <v>0.09999999999999998</v>
@@ -19108,7 +19108,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.09545004741723408</v>
+        <v>0.08699835997544302</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -19134,7 +19134,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.003825886813243311</v>
+        <v>0.00768161727854078</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -19163,7 +19163,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -19186,10 +19186,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.05016110985890743</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="C7">
-        <v>0.05444909143351601</v>
+        <v>0.054449091433516</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -19224,10 +19224,10 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="F8">
-        <v>0.04000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G8">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999995</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -19326,7 +19326,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.09538786571006379</v>
+        <v>0.08677380784790623</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -19352,7 +19352,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.003854254627880557</v>
+        <v>0.007784059836332227</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -19381,7 +19381,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -19439,13 +19439,13 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="E8">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="F8">
         <v>0.04000000000000004</v>
       </c>
       <c r="G8">
-        <v>0.09999999999999999</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -19544,7 +19544,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.09529284054586855</v>
+        <v>0.08650004380355789</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -19570,7 +19570,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.00389760590217707</v>
+        <v>0.007908953281974511</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -19599,7 +19599,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -19648,7 +19648,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="C8">
         <v>0.2764705882352941</v>
@@ -19762,7 +19762,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.09532024781614908</v>
+        <v>0.08659856631174276</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -19788,7 +19788,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.003885102476355994</v>
+        <v>0.007864006490112849</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -19881,7 +19881,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="G8">
-        <v>0.09999999999999996</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -19980,7 +19980,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.09541854056489957</v>
+        <v>0.08691869720638648</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -20006,7 +20006,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.003840260502669056</v>
+        <v>0.007717960099748573</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -20035,7 +20035,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -20084,19 +20084,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="C8">
         <v>0.2764705882352941</v>
       </c>
       <c r="D8">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="E8">
         <v>0.07999999999999996</v>
       </c>
       <c r="F8">
-        <v>0.04000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G8">
         <v>0.09999999999999998</v>
@@ -20416,7 +20416,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.09564798762356128</v>
+        <v>0.08767157324475024</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -20442,7 +20442,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.003735584836377807</v>
+        <v>0.007374491757159647</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -20471,7 +20471,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -20520,13 +20520,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="C8">
         <v>0.2764705882352941</v>
       </c>
       <c r="D8">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="E8">
         <v>0.07999999999999996</v>
@@ -20634,7 +20634,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.09602286887790738</v>
+        <v>0.08892293519615765</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -20660,7 +20660,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.003564560874215655</v>
+        <v>0.006803609973801464</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -20738,19 +20738,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="C8">
         <v>0.2764705882352941</v>
       </c>
       <c r="D8">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="E8">
         <v>0.07999999999999996</v>
       </c>
       <c r="F8">
-        <v>0.04000000000000004</v>
+        <v>0.04000000000000003</v>
       </c>
       <c r="G8">
         <v>0.09999999999999998</v>
@@ -20852,7 +20852,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.09631828714886369</v>
+        <v>0.08996275510437965</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -20878,7 +20878,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.003429788589369979</v>
+        <v>0.006329235438992034</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -20930,10 +20930,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="C7">
-        <v>0.05444909143351601</v>
+        <v>0.05444909143351602</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -20956,7 +20956,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="C8">
         <v>0.2764705882352941</v>
@@ -20965,13 +20965,13 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="E8">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="F8">
-        <v>0.04000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G8">
-        <v>0.09999999999999996</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -21070,7 +21070,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.09625494461871688</v>
+        <v>0.0898351822782129</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -21096,7 +21096,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.003458685981153348</v>
+        <v>0.006387435228771644</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -21125,7 +21125,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -21148,7 +21148,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="C7">
         <v>0.05444909143351601</v>
@@ -21174,7 +21174,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="C8">
         <v>0.2764705882352941</v>
@@ -21189,7 +21189,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="G8">
-        <v>0.09999999999999996</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -21288,7 +21288,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.09602399063660602</v>
+        <v>0.08901531844894135</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -21314,7 +21314,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.003564049118519663</v>
+        <v>0.006761463961576732</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -21366,7 +21366,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="C7">
         <v>0.05444909143351601</v>
@@ -21401,13 +21401,13 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="E8">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="F8">
         <v>0.04000000000000004</v>
       </c>
       <c r="G8">
-        <v>0.09999999999999999</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -21506,7 +21506,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.09595101349241358</v>
+        <v>0.08852602788321344</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -21532,7 +21532,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.003597341901774025</v>
+        <v>0.006984682408029352</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -21584,7 +21584,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="C7">
         <v>0.05444909143351601</v>
@@ -21625,7 +21625,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="G8">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999995</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -21724,7 +21724,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.0959737778733661</v>
+        <v>0.08833199560743978</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -21750,7 +21750,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.003586956600877998</v>
+        <v>0.007073201554306839</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -21779,7 +21779,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -21828,16 +21828,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="C8">
         <v>0.2764705882352941</v>
       </c>
       <c r="D8">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="E8">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="F8">
         <v>0.04000000000000004</v>
@@ -21942,7 +21942,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.09586437929260645</v>
+        <v>0.08796944655877494</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -21968,7 +21968,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.003636865147969963</v>
+        <v>0.007238599461142509</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -22023,7 +22023,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="C7">
-        <v>0.05444909143351601</v>
+        <v>0.054449091433516</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -22055,7 +22055,7 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="E8">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="F8">
         <v>0.04000000000000004</v>
@@ -22160,7 +22160,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.0955360090907709</v>
+        <v>0.08731389701597701</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -22186,7 +22186,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.00378667037915407</v>
+        <v>0.00753766664282501</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -22238,7 +22238,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="C7">
         <v>0.054449091433516</v>
@@ -22273,7 +22273,7 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="E8">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="F8">
         <v>0.04000000000000004</v>
@@ -22378,7 +22378,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.09521005708893629</v>
+        <v>0.0867474658269011</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -22404,7 +22404,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.003935372407282083</v>
+        <v>0.007796077286528586</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -22456,10 +22456,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="C7">
-        <v>0.05444909143351602</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -22494,10 +22494,10 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="F8">
-        <v>0.04000000000000004</v>
+        <v>0.04000000000000003</v>
       </c>
       <c r="G8">
-        <v>0.09999999999999999</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="H8">
         <v>0</v>

--- a/Recycling/SG2/SG2_Max.xlsx
+++ b/Recycling/SG2/SG2_Max.xlsx
@@ -1014,7 +1014,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.08670714172353318</v>
+        <v>0.08670714172353319</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1040,7 +1040,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.007814473479586161</v>
+        <v>0.007814473479586163</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1092,7 +1092,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="C7">
         <v>0.054449091433516</v>
@@ -1118,7 +1118,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="C8">
         <v>0.2764705882352941</v>
@@ -7554,7 +7554,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.09320124682821199</v>
+        <v>0.093201246828212</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -7580,7 +7580,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.00485180844146123</v>
+        <v>0.004851808441461231</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -11478,7 +11478,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.08774625914890302</v>
+        <v>0.08774625914890304</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -11504,7 +11504,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.007340419423326487</v>
+        <v>0.007340419423326488</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -11556,7 +11556,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="C7">
         <v>0.05444909143351601</v>
@@ -11582,7 +11582,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="C8">
         <v>0.2764705882352941</v>

--- a/Recycling/SG2/SG2_Max.xlsx
+++ b/Recycling/SG2/SG2_Max.xlsx
@@ -1014,7 +1014,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.08670714172353319</v>
+        <v>0.08670714172353318</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1040,7 +1040,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.007814473479586163</v>
+        <v>0.007814473479586161</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1092,7 +1092,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="C7">
         <v>0.054449091433516</v>
@@ -1118,7 +1118,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="C8">
         <v>0.2764705882352941</v>
@@ -7554,7 +7554,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.093201246828212</v>
+        <v>0.09320124682821199</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -7580,7 +7580,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.004851808441461231</v>
+        <v>0.00485180844146123</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -11478,7 +11478,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.08774625914890304</v>
+        <v>0.08774625914890302</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -11504,7 +11504,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.007340419423326488</v>
+        <v>0.007340419423326487</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -11556,7 +11556,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="C7">
         <v>0.05444909143351601</v>
@@ -11582,7 +11582,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="C8">
         <v>0.2764705882352941</v>

--- a/Recycling/SG2/SG2_Max.xlsx
+++ b/Recycling/SG2/SG2_Max.xlsx
@@ -7,114 +7,103 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="2000" sheetId="1" r:id="rId1"/>
-    <sheet name="2001" sheetId="2" r:id="rId2"/>
-    <sheet name="2002" sheetId="3" r:id="rId3"/>
-    <sheet name="2003" sheetId="4" r:id="rId4"/>
-    <sheet name="2004" sheetId="5" r:id="rId5"/>
-    <sheet name="2005" sheetId="6" r:id="rId6"/>
-    <sheet name="2006" sheetId="7" r:id="rId7"/>
-    <sheet name="2007" sheetId="8" r:id="rId8"/>
-    <sheet name="2008" sheetId="9" r:id="rId9"/>
-    <sheet name="2009" sheetId="10" r:id="rId10"/>
-    <sheet name="2010" sheetId="11" r:id="rId11"/>
-    <sheet name="2011" sheetId="12" r:id="rId12"/>
-    <sheet name="2012" sheetId="13" r:id="rId13"/>
-    <sheet name="2013" sheetId="14" r:id="rId14"/>
-    <sheet name="2014" sheetId="15" r:id="rId15"/>
-    <sheet name="2015" sheetId="16" r:id="rId16"/>
-    <sheet name="2016" sheetId="17" r:id="rId17"/>
-    <sheet name="2017" sheetId="18" r:id="rId18"/>
-    <sheet name="2018" sheetId="19" r:id="rId19"/>
-    <sheet name="2019" sheetId="20" r:id="rId20"/>
-    <sheet name="2020" sheetId="21" r:id="rId21"/>
-    <sheet name="2021" sheetId="22" r:id="rId22"/>
-    <sheet name="2022" sheetId="23" r:id="rId23"/>
-    <sheet name="2023" sheetId="24" r:id="rId24"/>
-    <sheet name="2024" sheetId="25" r:id="rId25"/>
-    <sheet name="2025" sheetId="26" r:id="rId26"/>
-    <sheet name="2026" sheetId="27" r:id="rId27"/>
-    <sheet name="2027" sheetId="28" r:id="rId28"/>
-    <sheet name="2028" sheetId="29" r:id="rId29"/>
-    <sheet name="2029" sheetId="30" r:id="rId30"/>
-    <sheet name="2030" sheetId="31" r:id="rId31"/>
-    <sheet name="2031" sheetId="32" r:id="rId32"/>
-    <sheet name="2032" sheetId="33" r:id="rId33"/>
-    <sheet name="2033" sheetId="34" r:id="rId34"/>
-    <sheet name="2034" sheetId="35" r:id="rId35"/>
-    <sheet name="2035" sheetId="36" r:id="rId36"/>
-    <sheet name="2036" sheetId="37" r:id="rId37"/>
-    <sheet name="2037" sheetId="38" r:id="rId38"/>
-    <sheet name="2038" sheetId="39" r:id="rId39"/>
-    <sheet name="2039" sheetId="40" r:id="rId40"/>
-    <sheet name="2040" sheetId="41" r:id="rId41"/>
-    <sheet name="2041" sheetId="42" r:id="rId42"/>
-    <sheet name="2042" sheetId="43" r:id="rId43"/>
-    <sheet name="2043" sheetId="44" r:id="rId44"/>
-    <sheet name="2044" sheetId="45" r:id="rId45"/>
-    <sheet name="2045" sheetId="46" r:id="rId46"/>
-    <sheet name="2046" sheetId="47" r:id="rId47"/>
-    <sheet name="2047" sheetId="48" r:id="rId48"/>
-    <sheet name="2048" sheetId="49" r:id="rId49"/>
-    <sheet name="2049" sheetId="50" r:id="rId50"/>
-    <sheet name="2050" sheetId="51" r:id="rId51"/>
-    <sheet name="2051" sheetId="52" r:id="rId52"/>
-    <sheet name="2052" sheetId="53" r:id="rId53"/>
-    <sheet name="2053" sheetId="54" r:id="rId54"/>
-    <sheet name="2054" sheetId="55" r:id="rId55"/>
-    <sheet name="2055" sheetId="56" r:id="rId56"/>
-    <sheet name="2056" sheetId="57" r:id="rId57"/>
-    <sheet name="2057" sheetId="58" r:id="rId58"/>
-    <sheet name="2058" sheetId="59" r:id="rId59"/>
-    <sheet name="2059" sheetId="60" r:id="rId60"/>
-    <sheet name="2060" sheetId="61" r:id="rId61"/>
-    <sheet name="2061" sheetId="62" r:id="rId62"/>
-    <sheet name="2062" sheetId="63" r:id="rId63"/>
-    <sheet name="2063" sheetId="64" r:id="rId64"/>
-    <sheet name="2064" sheetId="65" r:id="rId65"/>
-    <sheet name="2065" sheetId="66" r:id="rId66"/>
-    <sheet name="2066" sheetId="67" r:id="rId67"/>
-    <sheet name="2067" sheetId="68" r:id="rId68"/>
-    <sheet name="2068" sheetId="69" r:id="rId69"/>
-    <sheet name="2069" sheetId="70" r:id="rId70"/>
-    <sheet name="2070" sheetId="71" r:id="rId71"/>
-    <sheet name="2071" sheetId="72" r:id="rId72"/>
-    <sheet name="2072" sheetId="73" r:id="rId73"/>
-    <sheet name="2073" sheetId="74" r:id="rId74"/>
-    <sheet name="2074" sheetId="75" r:id="rId75"/>
-    <sheet name="2075" sheetId="76" r:id="rId76"/>
-    <sheet name="2076" sheetId="77" r:id="rId77"/>
-    <sheet name="2077" sheetId="78" r:id="rId78"/>
-    <sheet name="2078" sheetId="79" r:id="rId79"/>
-    <sheet name="2079" sheetId="80" r:id="rId80"/>
-    <sheet name="2080" sheetId="81" r:id="rId81"/>
-    <sheet name="2081" sheetId="82" r:id="rId82"/>
-    <sheet name="2082" sheetId="83" r:id="rId83"/>
-    <sheet name="2083" sheetId="84" r:id="rId84"/>
-    <sheet name="2084" sheetId="85" r:id="rId85"/>
-    <sheet name="2085" sheetId="86" r:id="rId86"/>
-    <sheet name="2086" sheetId="87" r:id="rId87"/>
-    <sheet name="2087" sheetId="88" r:id="rId88"/>
-    <sheet name="2088" sheetId="89" r:id="rId89"/>
-    <sheet name="2089" sheetId="90" r:id="rId90"/>
-    <sheet name="2090" sheetId="91" r:id="rId91"/>
-    <sheet name="2091" sheetId="92" r:id="rId92"/>
-    <sheet name="2092" sheetId="93" r:id="rId93"/>
-    <sheet name="2093" sheetId="94" r:id="rId94"/>
-    <sheet name="2094" sheetId="95" r:id="rId95"/>
-    <sheet name="2095" sheetId="96" r:id="rId96"/>
-    <sheet name="2096" sheetId="97" r:id="rId97"/>
-    <sheet name="2097" sheetId="98" r:id="rId98"/>
-    <sheet name="2098" sheetId="99" r:id="rId99"/>
-    <sheet name="2099" sheetId="100" r:id="rId100"/>
-    <sheet name="2100" sheetId="101" r:id="rId101"/>
+    <sheet name="2011" sheetId="1" r:id="rId1"/>
+    <sheet name="2012" sheetId="2" r:id="rId2"/>
+    <sheet name="2013" sheetId="3" r:id="rId3"/>
+    <sheet name="2014" sheetId="4" r:id="rId4"/>
+    <sheet name="2015" sheetId="5" r:id="rId5"/>
+    <sheet name="2016" sheetId="6" r:id="rId6"/>
+    <sheet name="2017" sheetId="7" r:id="rId7"/>
+    <sheet name="2018" sheetId="8" r:id="rId8"/>
+    <sheet name="2019" sheetId="9" r:id="rId9"/>
+    <sheet name="2020" sheetId="10" r:id="rId10"/>
+    <sheet name="2021" sheetId="11" r:id="rId11"/>
+    <sheet name="2022" sheetId="12" r:id="rId12"/>
+    <sheet name="2023" sheetId="13" r:id="rId13"/>
+    <sheet name="2024" sheetId="14" r:id="rId14"/>
+    <sheet name="2025" sheetId="15" r:id="rId15"/>
+    <sheet name="2026" sheetId="16" r:id="rId16"/>
+    <sheet name="2027" sheetId="17" r:id="rId17"/>
+    <sheet name="2028" sheetId="18" r:id="rId18"/>
+    <sheet name="2029" sheetId="19" r:id="rId19"/>
+    <sheet name="2030" sheetId="20" r:id="rId20"/>
+    <sheet name="2031" sheetId="21" r:id="rId21"/>
+    <sheet name="2032" sheetId="22" r:id="rId22"/>
+    <sheet name="2033" sheetId="23" r:id="rId23"/>
+    <sheet name="2034" sheetId="24" r:id="rId24"/>
+    <sheet name="2035" sheetId="25" r:id="rId25"/>
+    <sheet name="2036" sheetId="26" r:id="rId26"/>
+    <sheet name="2037" sheetId="27" r:id="rId27"/>
+    <sheet name="2038" sheetId="28" r:id="rId28"/>
+    <sheet name="2039" sheetId="29" r:id="rId29"/>
+    <sheet name="2040" sheetId="30" r:id="rId30"/>
+    <sheet name="2041" sheetId="31" r:id="rId31"/>
+    <sheet name="2042" sheetId="32" r:id="rId32"/>
+    <sheet name="2043" sheetId="33" r:id="rId33"/>
+    <sheet name="2044" sheetId="34" r:id="rId34"/>
+    <sheet name="2045" sheetId="35" r:id="rId35"/>
+    <sheet name="2046" sheetId="36" r:id="rId36"/>
+    <sheet name="2047" sheetId="37" r:id="rId37"/>
+    <sheet name="2048" sheetId="38" r:id="rId38"/>
+    <sheet name="2049" sheetId="39" r:id="rId39"/>
+    <sheet name="2050" sheetId="40" r:id="rId40"/>
+    <sheet name="2051" sheetId="41" r:id="rId41"/>
+    <sheet name="2052" sheetId="42" r:id="rId42"/>
+    <sheet name="2053" sheetId="43" r:id="rId43"/>
+    <sheet name="2054" sheetId="44" r:id="rId44"/>
+    <sheet name="2055" sheetId="45" r:id="rId45"/>
+    <sheet name="2056" sheetId="46" r:id="rId46"/>
+    <sheet name="2057" sheetId="47" r:id="rId47"/>
+    <sheet name="2058" sheetId="48" r:id="rId48"/>
+    <sheet name="2059" sheetId="49" r:id="rId49"/>
+    <sheet name="2060" sheetId="50" r:id="rId50"/>
+    <sheet name="2061" sheetId="51" r:id="rId51"/>
+    <sheet name="2062" sheetId="52" r:id="rId52"/>
+    <sheet name="2063" sheetId="53" r:id="rId53"/>
+    <sheet name="2064" sheetId="54" r:id="rId54"/>
+    <sheet name="2065" sheetId="55" r:id="rId55"/>
+    <sheet name="2066" sheetId="56" r:id="rId56"/>
+    <sheet name="2067" sheetId="57" r:id="rId57"/>
+    <sheet name="2068" sheetId="58" r:id="rId58"/>
+    <sheet name="2069" sheetId="59" r:id="rId59"/>
+    <sheet name="2070" sheetId="60" r:id="rId60"/>
+    <sheet name="2071" sheetId="61" r:id="rId61"/>
+    <sheet name="2072" sheetId="62" r:id="rId62"/>
+    <sheet name="2073" sheetId="63" r:id="rId63"/>
+    <sheet name="2074" sheetId="64" r:id="rId64"/>
+    <sheet name="2075" sheetId="65" r:id="rId65"/>
+    <sheet name="2076" sheetId="66" r:id="rId66"/>
+    <sheet name="2077" sheetId="67" r:id="rId67"/>
+    <sheet name="2078" sheetId="68" r:id="rId68"/>
+    <sheet name="2079" sheetId="69" r:id="rId69"/>
+    <sheet name="2080" sheetId="70" r:id="rId70"/>
+    <sheet name="2081" sheetId="71" r:id="rId71"/>
+    <sheet name="2082" sheetId="72" r:id="rId72"/>
+    <sheet name="2083" sheetId="73" r:id="rId73"/>
+    <sheet name="2084" sheetId="74" r:id="rId74"/>
+    <sheet name="2085" sheetId="75" r:id="rId75"/>
+    <sheet name="2086" sheetId="76" r:id="rId76"/>
+    <sheet name="2087" sheetId="77" r:id="rId77"/>
+    <sheet name="2088" sheetId="78" r:id="rId78"/>
+    <sheet name="2089" sheetId="79" r:id="rId79"/>
+    <sheet name="2090" sheetId="80" r:id="rId80"/>
+    <sheet name="2091" sheetId="81" r:id="rId81"/>
+    <sheet name="2092" sheetId="82" r:id="rId82"/>
+    <sheet name="2093" sheetId="83" r:id="rId83"/>
+    <sheet name="2094" sheetId="84" r:id="rId84"/>
+    <sheet name="2095" sheetId="85" r:id="rId85"/>
+    <sheet name="2096" sheetId="86" r:id="rId86"/>
+    <sheet name="2097" sheetId="87" r:id="rId87"/>
+    <sheet name="2098" sheetId="88" r:id="rId88"/>
+    <sheet name="2099" sheetId="89" r:id="rId89"/>
+    <sheet name="2100" sheetId="90" r:id="rId90"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2121" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1890" uniqueCount="12">
   <si>
     <t>EU27+UK</t>
   </si>
@@ -639,7 +628,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>0.10273570485018</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -667,7 +656,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>0.0005021089857497892</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -698,7 +687,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -723,10 +712,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -751,22 +740,22 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -917,7 +906,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>0.1012913268853769</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -945,7 +934,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>0.001161046287992891</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -976,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -1001,10 +990,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -1029,284 +1018,6 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="D1:J1"/>
-    <mergeCell ref="D2:J2"/>
-    <mergeCell ref="A5:A11"/>
-    <mergeCell ref="B5:B11"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet100.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:10">
-      <c r="C1" s="1"/>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="C2" s="1"/>
-      <c r="D2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="C3" s="1"/>
-      <c r="D3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7">
-        <v>0.08670714172353318</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8">
-        <v>0.007814473479586161</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0.2418568350328302</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10">
-        <v>0.05016110985890741</v>
-      </c>
-      <c r="E10">
-        <v>0.054449091433516</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11">
         <v>0.211111111111111</v>
       </c>
       <c r="E11">
@@ -1316,291 +1027,13 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999999</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="D1:J1"/>
-    <mergeCell ref="D2:J2"/>
-    <mergeCell ref="A5:A11"/>
-    <mergeCell ref="B5:B11"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet101.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:10">
-      <c r="C1" s="1"/>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="C2" s="1"/>
-      <c r="D2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="C3" s="1"/>
-      <c r="D3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7">
-        <v>0.08711869870625603</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8">
-        <v>0.00762671774353707</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0.2418568350328303</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10">
-        <v>0.05016110985890741</v>
-      </c>
-      <c r="E10">
-        <v>0.05444909143351601</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11">
-        <v>0.2111111111111111</v>
-      </c>
-      <c r="E11">
-        <v>0.2764705882352941</v>
-      </c>
-      <c r="F11">
-        <v>0.07999999999999996</v>
-      </c>
-      <c r="G11">
-        <v>0.07999999999999996</v>
-      </c>
-      <c r="H11">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="I11">
-        <v>0.09999999999999996</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -1751,7 +1184,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.1028962528139603</v>
+        <v>0.1011643703894355</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1779,7 +1212,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.0004288656625255583</v>
+        <v>0.0012189649027713</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1838,7 +1271,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351602</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -1875,7 +1308,7 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="H11">
-        <v>0.04000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="I11">
         <v>0.09999999999999998</v>
@@ -2029,7 +1462,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.10273570485018</v>
+        <v>0.1010399970185366</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -2057,7 +1490,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.0005021089857497892</v>
+        <v>0.001275705074310946</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -2150,13 +1583,13 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -2307,7 +1740,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.1025655412608422</v>
+        <v>0.100905110415399</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -2335,7 +1768,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.0005797390377379896</v>
+        <v>0.001337241470286321</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -2391,7 +1824,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -2428,13 +1861,13 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999996</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -2585,7 +2018,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.1023910203850967</v>
+        <v>0.1007238031703567</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -2613,7 +2046,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.0006593569202113744</v>
+        <v>0.00141995535116552</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -2712,7 +2145,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -2863,7 +2296,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.1022163228450164</v>
+        <v>0.1004028966538575</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -2891,7 +2324,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.0007390553984311613</v>
+        <v>0.001566355586704328</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -2975,13 +2408,13 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
@@ -2990,7 +2423,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999999</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -3141,7 +2574,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.1020446511203467</v>
+        <v>0.09973444393662148</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -3169,7 +2602,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.0008173734743654296</v>
+        <v>0.001871309304433347</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -3228,7 +2661,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.054449091433516</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -3253,7 +2686,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -3262,7 +2695,7 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
@@ -3419,7 +2852,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.1018783631271352</v>
+        <v>0.0985812226199182</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -3447,7 +2880,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.0008932354470016448</v>
+        <v>0.002397418509804171</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -3537,16 +2970,16 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999999</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -3697,7 +3130,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.101719108568828</v>
+        <v>0.0983013714855564</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -3725,7 +3158,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.0009658887078364458</v>
+        <v>0.002525088936797406</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -3781,10 +3214,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351602</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -3815,16 +3248,16 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
       </c>
       <c r="H11">
-        <v>0.04000000000000004</v>
+        <v>0.04000000000000003</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999999</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -3975,7 +3408,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.1015679452485709</v>
+        <v>0.1002947941113718</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -4003,7 +3436,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.001034850678231688</v>
+        <v>0.001615672870301117</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -4034,7 +3467,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -4059,7 +3492,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -4253,7 +3686,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>0.1025655412608422</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -4281,7 +3714,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>0.0005797390377379896</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -4312,7 +3745,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -4337,10 +3770,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -4365,22 +3798,22 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -4531,7 +3964,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.1014253944541564</v>
+        <v>0.1015175979411343</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -4559,7 +3992,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.001099883542338644</v>
+        <v>0.001057819540777329</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -4590,7 +4023,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -4615,7 +4048,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -4649,7 +4082,7 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
@@ -4809,7 +4242,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.1012913268853769</v>
+        <v>0.100461432003888</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -4837,7 +4270,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.001161046287992891</v>
+        <v>0.001539651270677035</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -4868,7 +4301,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -4896,7 +4329,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.054449091433516</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -4936,7 +4369,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -5087,7 +4520,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.1011643703894355</v>
+        <v>0.0990876650551623</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -5115,7 +4548,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.0012189649027713</v>
+        <v>0.0021663752370922</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -5214,7 +4647,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -5365,7 +4798,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.1010399970185366</v>
+        <v>0.09762851090649556</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -5393,7 +4826,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.001275705074310946</v>
+        <v>0.002832053557939712</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -5477,7 +4910,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -5486,13 +4919,13 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999999</v>
+        <v>0.1</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -5643,7 +5076,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.100905110415399</v>
+        <v>0.09593445185133395</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -5671,7 +5104,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.001337241470286321</v>
+        <v>0.003604897460886435</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -5727,10 +5160,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.054449091433516</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -5764,7 +5197,7 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
@@ -5921,7 +5354,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.1007238031703567</v>
+        <v>0.09458985731570362</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -5949,7 +5382,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.00141995535116552</v>
+        <v>0.004218312728572161</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -6048,7 +5481,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999999</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -6199,7 +5632,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.1004028966538575</v>
+        <v>0.09320124682821199</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -6227,7 +5660,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.001566355586704328</v>
+        <v>0.00485180844146123</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -6258,7 +5691,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -6286,7 +5719,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.054449091433516</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -6311,7 +5744,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -6320,7 +5753,7 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
@@ -6477,7 +5910,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.09973444393662148</v>
+        <v>0.08917279485062421</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -6505,7 +5938,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.001871309304433347</v>
+        <v>0.006689621910658986</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -6564,7 +5997,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.054449091433516</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -6598,7 +6031,7 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
@@ -6755,7 +6188,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.0985812226199182</v>
+        <v>0.08184194410746023</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -6783,7 +6216,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.002397418509804171</v>
+        <v>0.01003401730408067</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -6814,7 +6247,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -6839,7 +6272,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890743</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -6876,7 +6309,7 @@
         <v>0.07999999999999997</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
@@ -7033,7 +6466,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.0983013714855564</v>
+        <v>0.07527622480232496</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -7061,7 +6494,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.002525088936797406</v>
+        <v>0.01302935333913368</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -7092,7 +6525,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -7117,7 +6550,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -7145,19 +6578,19 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
       </c>
       <c r="H11">
-        <v>0.04000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="I11">
         <v>0.09999999999999998</v>
@@ -7311,7 +6744,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>0.1023910203850967</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -7339,7 +6772,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>0.0006593569202113744</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -7370,7 +6803,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -7395,10 +6828,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -7423,22 +6856,22 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -7589,7 +7022,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.1002947941113718</v>
+        <v>0.06952250819791879</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -7617,7 +7050,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.001615672870301117</v>
+        <v>0.01565424695394008</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -7867,7 +7300,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.1015175979411343</v>
+        <v>0.06767341105338645</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -7895,7 +7328,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.001057819540777329</v>
+        <v>0.01649782052934397</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -7954,7 +7387,7 @@
         <v>0.05016110985890742</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.05444909143351602</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -7979,13 +7412,13 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
@@ -7994,7 +7427,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999995</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -8145,7 +7578,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.100461432003888</v>
+        <v>0.06927650676313736</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -8173,7 +7606,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.001539651270677035</v>
+        <v>0.01576647486500828</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -8232,7 +7665,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.054449091433516</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -8266,13 +7699,13 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="H11">
-        <v>0.04000000000000004</v>
+        <v>0.04000000000000003</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999996</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -8423,7 +7856,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.0990876650551623</v>
+        <v>0.06752666506181797</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -8451,7 +7884,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.0021663752370922</v>
+        <v>0.01656476727746353</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -8507,7 +7940,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -8544,13 +7977,13 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999999</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -8701,7 +8134,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.09762851090649556</v>
+        <v>0.06912470217031584</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -8729,7 +8162,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.002832053557939712</v>
+        <v>0.01583572938930834</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -8788,7 +8221,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.05444909143351602</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -8813,7 +8246,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -8828,7 +8261,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.1</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -8979,7 +8412,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.09593445185133395</v>
+        <v>0.07531671910044004</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -9007,7 +8440,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.003604897460886435</v>
+        <v>0.01301087950180965</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -9066,7 +8499,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.054449091433516</v>
+        <v>0.05444909143351602</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -9091,7 +8524,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -9100,13 +8533,13 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -9257,7 +8690,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.09458985731570362</v>
+        <v>0.08376150430949737</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -9285,7 +8718,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.004218312728572161</v>
+        <v>0.009158297892786542</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -9369,7 +8802,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -9535,7 +8968,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.09320124682821199</v>
+        <v>0.08838500066327354</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -9563,7 +8996,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.00485180844146123</v>
+        <v>0.007049020204724222</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -9594,7 +9027,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -9619,10 +9052,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="E10">
-        <v>0.054449091433516</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -9647,7 +9080,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -9656,7 +9089,7 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
@@ -9813,7 +9246,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08917279485062421</v>
+        <v>0.08811287429327815</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -9841,7 +9274,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.006689621910658986</v>
+        <v>0.007173166529636068</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -9900,7 +9333,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.05444909143351602</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -9925,7 +9358,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -9940,7 +9373,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -10091,7 +9524,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08184194410746023</v>
+        <v>0.08786472098704391</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -10119,7 +9552,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.01003401730408067</v>
+        <v>0.007286376142450244</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -10175,7 +9608,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890743</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -10369,7 +9802,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>0.1022163228450164</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -10397,7 +9830,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>0.0007390553984311613</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -10428,7 +9861,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -10453,10 +9886,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -10481,22 +9914,22 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -10647,7 +10080,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.07527622480232496</v>
+        <v>0.08785195595601121</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -10675,7 +10108,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.01302935333913368</v>
+        <v>0.007292199656320371</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -10706,7 +10139,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -10731,7 +10164,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -10925,7 +10358,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.06952250819791879</v>
+        <v>0.08780527350646178</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -10953,7 +10386,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.01565424695394008</v>
+        <v>0.00731349658006041</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -11009,7 +10442,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -11046,7 +10479,7 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
@@ -11203,7 +10636,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.06767341105338645</v>
+        <v>0.08774625914890302</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -11231,7 +10664,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.01649782052934397</v>
+        <v>0.007340419423326487</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -11262,7 +10695,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -11287,10 +10720,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351602</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -11315,7 +10748,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -11324,13 +10757,13 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999995</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -11481,7 +10914,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.06927650676313736</v>
+        <v>0.08770946743510273</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -11509,7 +10942,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.01576647486500828</v>
+        <v>0.007357204110733273</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -11602,10 +11035,10 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
-        <v>0.04000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="I11">
         <v>0.09999999999999998</v>
@@ -11759,7 +11192,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.06752666506181797</v>
+        <v>0.08771146056820731</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -11787,7 +11220,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.01656476727746353</v>
+        <v>0.007356294826748784</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -11818,7 +11251,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -11843,10 +11276,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.054449091433516</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -11880,10 +11313,10 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="H11">
-        <v>0.04000000000000004</v>
+        <v>0.04000000000000003</v>
       </c>
       <c r="I11">
         <v>0.09999999999999998</v>
@@ -12037,7 +11470,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.06912470217031584</v>
+        <v>0.08770529179308657</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -12065,7 +11498,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.01583572938930834</v>
+        <v>0.007359109073528551</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -12121,7 +11554,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="E10">
         <v>0.05444909143351602</v>
@@ -12149,7 +11582,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -12315,7 +11748,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.07531671910044004</v>
+        <v>0.08764848744269324</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -12343,7 +11776,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.01301087950180965</v>
+        <v>0.007385023693050564</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -12374,7 +11807,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -12402,7 +11835,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351602</v>
+        <v>0.054449091433516</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -12427,7 +11860,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -12593,7 +12026,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08376150430949737</v>
+        <v>0.08758277767873386</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -12621,7 +12054,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.009158297892786542</v>
+        <v>0.007415001036688824</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -12677,7 +12110,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -12705,7 +12138,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -12714,7 +12147,7 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
@@ -12871,7 +12304,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08838500066327354</v>
+        <v>0.0875299905523954</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -12899,7 +12332,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007049020204724222</v>
+        <v>0.007439082965013846</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -12955,7 +12388,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -12998,7 +12431,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -13149,7 +12582,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08811287429327815</v>
+        <v>0.08746042625000131</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -13177,7 +12610,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007173166529636068</v>
+        <v>0.007470818781309152</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -13236,7 +12669,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351602</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -13261,7 +12694,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -13427,7 +12860,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>0.1020446511203467</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -13455,7 +12888,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>0.0008173734743654296</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -13486,7 +12919,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -13511,10 +12944,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -13539,22 +12972,22 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -13705,7 +13138,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08786472098704391</v>
+        <v>0.0873061536189859</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -13733,7 +13166,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007286376142450244</v>
+        <v>0.007541199245265544</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -13817,13 +13250,13 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
@@ -13983,7 +13416,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08785195595601121</v>
+        <v>0.08670718957461693</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -14011,7 +13444,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007292199656320371</v>
+        <v>0.00781445164952174</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -14067,7 +13500,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -14104,7 +13537,7 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
@@ -14261,7 +13694,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08780527350646178</v>
+        <v>0.08419047005880079</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -14289,7 +13722,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.00731349658006041</v>
+        <v>0.008962600131889719</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -14320,7 +13753,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -14348,7 +13781,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.054449091433516</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -14379,16 +13812,16 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
+        <v>0.07999999999999997</v>
+      </c>
+      <c r="G11">
         <v>0.07999999999999996</v>
-      </c>
-      <c r="G11">
-        <v>0.07999999999999997</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -14539,7 +13972,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08774625914890302</v>
+        <v>0.08165850430983555</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -14567,7 +14000,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007340419423326487</v>
+        <v>0.01011770407327567</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -14626,7 +14059,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.054449091433516</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -14660,7 +14093,7 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
@@ -14817,7 +14250,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08770946743510273</v>
+        <v>0.08055171531422071</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -14845,7 +14278,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007357204110733273</v>
+        <v>0.01062263046560138</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -14944,7 +14377,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -15095,7 +14528,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08771146056820731</v>
+        <v>0.08003071472105393</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -15123,7 +14556,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007356294826748784</v>
+        <v>0.01086031529166086</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -15154,7 +14587,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -15182,7 +14615,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.054449091433516</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -15213,13 +14646,13 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
+        <v>0.07999999999999995</v>
+      </c>
+      <c r="G11">
         <v>0.07999999999999996</v>
       </c>
-      <c r="G11">
-        <v>0.07999999999999997</v>
-      </c>
       <c r="H11">
-        <v>0.04000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="I11">
         <v>0.09999999999999998</v>
@@ -15373,7 +14806,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08770529179308657</v>
+        <v>0.07905097710613132</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -15401,7 +14834,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007359109073528551</v>
+        <v>0.01130727978199162</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -15457,10 +14890,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351602</v>
+        <v>0.054449091433516</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -15500,7 +14933,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -15651,7 +15084,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08764848744269324</v>
+        <v>0.07927360830015334</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -15679,7 +15112,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007385023693050564</v>
+        <v>0.01120571357012821</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -15710,7 +15143,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -15738,7 +15171,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.054449091433516</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -15772,13 +15205,13 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999999</v>
+        <v>0.1</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -15929,7 +15362,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08758277767873386</v>
+        <v>0.09875945981877607</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -15957,7 +15390,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007415001036688824</v>
+        <v>0.002316105209659227</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -16013,7 +15446,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -16050,13 +15483,13 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999996</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -16207,7 +15640,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.0875299905523954</v>
+        <v>0.09986387647108176</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -16235,7 +15668,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007439082965013846</v>
+        <v>0.001812261100183449</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -16266,7 +15699,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -16291,7 +15724,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -16331,10 +15764,10 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="H11">
-        <v>0.04000000000000004</v>
+        <v>0.04000000000000003</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999999</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -16485,7 +15918,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>0.1018783631271352</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -16513,7 +15946,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>0.0008932354470016448</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -16544,7 +15977,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -16569,10 +16002,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -16597,22 +16030,22 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -16763,7 +16196,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08746042625000131</v>
+        <v>0.09841982911219072</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -16791,7 +16224,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007470818781309152</v>
+        <v>0.002471047577245665</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -16847,7 +16280,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -16875,7 +16308,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -16890,7 +16323,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999996</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -17041,7 +16474,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.0873061536189859</v>
+        <v>0.09584453327057847</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -17069,7 +16502,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007541199245265544</v>
+        <v>0.00364591906912776</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -17100,7 +16533,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -17128,7 +16561,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.054449091433516</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -17159,7 +16592,7 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
@@ -17319,7 +16752,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08670718957461693</v>
+        <v>0.09238292205941932</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -17347,7 +16780,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.00781445164952174</v>
+        <v>0.005225135042009629</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -17403,7 +16836,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -17440,13 +16873,13 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -17597,7 +17030,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08419047005880079</v>
+        <v>0.08920443501018283</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -17625,7 +17058,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.008962600131889719</v>
+        <v>0.00667518740536318</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -17681,7 +17114,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="E10">
         <v>0.054449091433516</v>
@@ -17715,16 +17148,16 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
+        <v>0.07999999999999996</v>
+      </c>
+      <c r="G11">
         <v>0.07999999999999997</v>
-      </c>
-      <c r="G11">
-        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999996</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -17875,7 +17308,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08165850430983555</v>
+        <v>0.08772317466048719</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -17903,7 +17336,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.01011770407327567</v>
+        <v>0.00735095075992332</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -17934,7 +17367,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -17962,7 +17395,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.054449091433516</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -17987,13 +17420,13 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
@@ -18153,7 +17586,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08055171531422071</v>
+        <v>0.08762288154354429</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -18181,7 +17614,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.01062263046560138</v>
+        <v>0.007396705318302321</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -18212,7 +17645,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -18237,7 +17670,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890743</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -18265,22 +17698,22 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
       </c>
       <c r="H11">
-        <v>0.04000000000000004</v>
+        <v>0.04000000000000003</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999996</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -18431,7 +17864,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08003071472105393</v>
+        <v>0.08763656264724612</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -18459,7 +17892,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.01086031529166086</v>
+        <v>0.007390463884422353</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -18543,7 +17976,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -18558,7 +17991,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -18709,7 +18142,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.07905097710613132</v>
+        <v>0.08752469227470927</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -18737,7 +18170,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.01130727978199162</v>
+        <v>0.007441500083586752</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -18796,7 +18229,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.054449091433516</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -18987,7 +18420,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.07927360830015334</v>
+        <v>0.08728985305051541</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -19015,7 +18448,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.01120571357012821</v>
+        <v>0.007548635700871153</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -19099,7 +18532,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -19108,13 +18541,13 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.1</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -19265,7 +18698,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.09875945981877607</v>
+        <v>0.08684743935515134</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -19293,7 +18726,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.002316105209659227</v>
+        <v>0.007750468527182883</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -19377,7 +18810,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -19392,7 +18825,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -19543,7 +18976,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>0.101719108568828</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -19571,7 +19004,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>0.0009658887078364458</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -19602,7 +19035,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -19627,10 +19060,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.05444909143351602</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -19655,22 +19088,22 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -19821,7 +19254,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.09986387647108176</v>
+        <v>0.08701159346023996</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -19849,7 +19282,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.001812261100183449</v>
+        <v>0.007675580052147211</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -19905,7 +19338,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.0501611098589074</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -19945,7 +19378,7 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="H11">
-        <v>0.04000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="I11">
         <v>0.09999999999999998</v>
@@ -20099,7 +19532,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.09841982911219072</v>
+        <v>0.08706482681758602</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -20127,7 +19560,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.002471047577245665</v>
+        <v>0.007651294549506127</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -20158,7 +19591,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -20183,7 +19616,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -20377,7 +19810,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.09584453327057847</v>
+        <v>0.08706823539507666</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -20405,7 +19838,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.00364591906912776</v>
+        <v>0.007649739527959905</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -20461,10 +19894,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="E10">
-        <v>0.054449091433516</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -20489,7 +19922,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -20655,7 +20088,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.09238292205941932</v>
+        <v>0.08706524841460694</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -20683,7 +20116,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.005225135042009629</v>
+        <v>0.007651102213420713</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -20767,7 +20200,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -20779,10 +20212,10 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="H11">
-        <v>0.04000000000000004</v>
+        <v>0.04000000000000003</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999999</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -20933,7 +20366,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08920443501018283</v>
+        <v>0.08699835997544302</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -20961,7 +20394,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.00667518740536318</v>
+        <v>0.00768161727854078</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -21017,7 +20450,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
         <v>0.054449091433516</v>
@@ -21054,13 +20487,13 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999995</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -21211,7 +20644,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08772317466048719</v>
+        <v>0.08677380784790623</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -21239,7 +20672,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.00735095075992332</v>
+        <v>0.007784059836332227</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -21270,7 +20703,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -21329,10 +20762,10 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
+        <v>0.07999999999999996</v>
+      </c>
+      <c r="G11">
         <v>0.07999999999999997</v>
-      </c>
-      <c r="G11">
-        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
@@ -21489,7 +20922,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08762288154354429</v>
+        <v>0.08650004380355789</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -21517,7 +20950,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007396705318302321</v>
+        <v>0.007908953281974511</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -21573,7 +21006,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890743</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -21601,19 +21034,19 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
       </c>
       <c r="H11">
-        <v>0.04000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="I11">
         <v>0.09999999999999998</v>
@@ -21767,7 +21200,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08763656264724612</v>
+        <v>0.08659856631174276</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -21795,7 +21228,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007390463884422353</v>
+        <v>0.007864006490112849</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -21885,7 +21318,7 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
@@ -21894,7 +21327,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999996</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -22045,7 +21478,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08752469227470927</v>
+        <v>0.08691869720638648</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -22073,7 +21506,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007441500083586752</v>
+        <v>0.007717960099748573</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -22157,13 +21590,13 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
@@ -22172,7 +21605,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999999</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -22323,7 +21756,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08728985305051541</v>
+        <v>0.08767157324475024</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -22351,7 +21784,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007548635700871153</v>
+        <v>0.007374491757159647</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -22382,7 +21815,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -22435,13 +21868,13 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
@@ -22601,7 +22034,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>0.1015679452485709</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -22629,7 +22062,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>0.001034850678231688</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -22660,7 +22093,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -22685,10 +22118,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -22713,22 +22146,22 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -22879,7 +22312,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08684743935515134</v>
+        <v>0.08892293519615765</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -22907,7 +22340,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007750468527182883</v>
+        <v>0.006803609973801464</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -22963,7 +22396,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -23003,10 +22436,10 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="H11">
-        <v>0.04000000000000004</v>
+        <v>0.04000000000000003</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999999</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -23157,7 +22590,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08701159346023996</v>
+        <v>0.08996275510437965</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -23185,7 +22618,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007675580052147211</v>
+        <v>0.006329235438992034</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -23216,7 +22649,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -23241,10 +22674,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.0501611098589074</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.05444909143351602</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -23269,7 +22702,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -23435,7 +22868,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08706482681758602</v>
+        <v>0.0898351822782129</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -23463,7 +22896,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007651294549506127</v>
+        <v>0.006387435228771644</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -23519,7 +22952,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -23547,7 +22980,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -23713,7 +23146,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08706823539507666</v>
+        <v>0.08901531844894135</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -23741,7 +23174,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007649739527959905</v>
+        <v>0.006761463961576732</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -23772,7 +23205,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -23797,7 +23230,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -23991,7 +23424,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08706524841460694</v>
+        <v>0.08852602788321344</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -24019,7 +23452,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007651102213420713</v>
+        <v>0.006984682408029352</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -24075,7 +23508,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -24103,7 +23536,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -24115,10 +23548,10 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="H11">
-        <v>0.04000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999995</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -24269,7 +23702,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08699835997544302</v>
+        <v>0.08833199560743978</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -24297,7 +23730,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.00768161727854078</v>
+        <v>0.007073201554306839</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -24328,7 +23761,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -24356,7 +23789,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.054449091433516</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -24387,16 +23820,16 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999995</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -24547,7 +23980,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08677380784790623</v>
+        <v>0.08796944655877494</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -24575,7 +24008,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007784059836332227</v>
+        <v>0.007238599461142509</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -24634,7 +24067,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.054449091433516</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -24825,7 +24258,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08650004380355789</v>
+        <v>0.08731389701597701</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -24853,7 +24286,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007908953281974511</v>
+        <v>0.00753766664282501</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -24884,7 +24317,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -24912,7 +24345,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.054449091433516</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -24937,7 +24370,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -25103,7 +24536,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08659856631174276</v>
+        <v>0.0867474658269011</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -25131,7 +24564,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007864006490112849</v>
+        <v>0.007796077286528586</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -25215,7 +24648,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -25227,7 +24660,7 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="H11">
-        <v>0.04000000000000004</v>
+        <v>0.04000000000000003</v>
       </c>
       <c r="I11">
         <v>0.09999999999999998</v>
@@ -25381,7 +24814,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08691869720638648</v>
+        <v>0.08670714172353318</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -25409,7 +24842,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007717960099748573</v>
+        <v>0.007814473479586161</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -25440,7 +24873,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -25468,7 +24901,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.054449091433516</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -25499,16 +24932,16 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
+        <v>0.07999999999999996</v>
+      </c>
+      <c r="G11">
         <v>0.07999999999999995</v>
-      </c>
-      <c r="G11">
-        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -25659,7 +25092,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>0.1014253944541564</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -25687,7 +25120,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>0.001099883542338644</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -25718,7 +25151,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -25743,10 +25176,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -25771,22 +25204,22 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -25937,7 +25370,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08767157324475024</v>
+        <v>0.08711869870625603</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -25965,7 +25398,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007374491757159647</v>
+        <v>0.00762671774353707</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -25996,7 +25429,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -26055,7 +25488,7 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
@@ -26064,2509 +25497,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="D1:J1"/>
-    <mergeCell ref="D2:J2"/>
-    <mergeCell ref="A5:A11"/>
-    <mergeCell ref="B5:B11"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet91.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:10">
-      <c r="C1" s="1"/>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="C2" s="1"/>
-      <c r="D2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="C3" s="1"/>
-      <c r="D3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7">
-        <v>0.08892293519615765</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8">
-        <v>0.006803609973801464</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0.2418568350328303</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10">
-        <v>0.05016110985890742</v>
-      </c>
-      <c r="E10">
-        <v>0.05444909143351601</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11">
-        <v>0.211111111111111</v>
-      </c>
-      <c r="E11">
-        <v>0.2764705882352941</v>
-      </c>
-      <c r="F11">
-        <v>0.07999999999999996</v>
-      </c>
-      <c r="G11">
-        <v>0.07999999999999996</v>
-      </c>
-      <c r="H11">
-        <v>0.04000000000000003</v>
-      </c>
-      <c r="I11">
-        <v>0.09999999999999998</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="D1:J1"/>
-    <mergeCell ref="D2:J2"/>
-    <mergeCell ref="A5:A11"/>
-    <mergeCell ref="B5:B11"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet92.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:10">
-      <c r="C1" s="1"/>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="C2" s="1"/>
-      <c r="D2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="C3" s="1"/>
-      <c r="D3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7">
-        <v>0.08996275510437965</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8">
-        <v>0.006329235438992034</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0.2418568350328303</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10">
-        <v>0.05016110985890741</v>
-      </c>
-      <c r="E10">
-        <v>0.05444909143351602</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11">
-        <v>0.211111111111111</v>
-      </c>
-      <c r="E11">
-        <v>0.2764705882352941</v>
-      </c>
-      <c r="F11">
-        <v>0.07999999999999996</v>
-      </c>
-      <c r="G11">
-        <v>0.07999999999999996</v>
-      </c>
-      <c r="H11">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="I11">
-        <v>0.09999999999999998</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="D1:J1"/>
-    <mergeCell ref="D2:J2"/>
-    <mergeCell ref="A5:A11"/>
-    <mergeCell ref="B5:B11"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet93.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:10">
-      <c r="C1" s="1"/>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="C2" s="1"/>
-      <c r="D2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="C3" s="1"/>
-      <c r="D3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7">
-        <v>0.0898351822782129</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8">
-        <v>0.006387435228771644</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0.2418568350328302</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10">
-        <v>0.05016110985890742</v>
-      </c>
-      <c r="E10">
-        <v>0.05444909143351601</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11">
-        <v>0.2111111111111111</v>
-      </c>
-      <c r="E11">
-        <v>0.2764705882352941</v>
-      </c>
-      <c r="F11">
-        <v>0.07999999999999996</v>
-      </c>
-      <c r="G11">
-        <v>0.07999999999999996</v>
-      </c>
-      <c r="H11">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="I11">
-        <v>0.09999999999999998</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="D1:J1"/>
-    <mergeCell ref="D2:J2"/>
-    <mergeCell ref="A5:A11"/>
-    <mergeCell ref="B5:B11"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet94.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:10">
-      <c r="C1" s="1"/>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="C2" s="1"/>
-      <c r="D2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="C3" s="1"/>
-      <c r="D3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7">
-        <v>0.08901531844894135</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8">
-        <v>0.006761463961576732</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0.2418568350328303</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10">
-        <v>0.05016110985890741</v>
-      </c>
-      <c r="E10">
-        <v>0.05444909143351601</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11">
-        <v>0.2111111111111111</v>
-      </c>
-      <c r="E11">
-        <v>0.2764705882352941</v>
-      </c>
-      <c r="F11">
-        <v>0.07999999999999996</v>
-      </c>
-      <c r="G11">
-        <v>0.07999999999999996</v>
-      </c>
-      <c r="H11">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="I11">
-        <v>0.09999999999999998</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="D1:J1"/>
-    <mergeCell ref="D2:J2"/>
-    <mergeCell ref="A5:A11"/>
-    <mergeCell ref="B5:B11"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet95.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:10">
-      <c r="C1" s="1"/>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="C2" s="1"/>
-      <c r="D2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="C3" s="1"/>
-      <c r="D3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7">
-        <v>0.08852602788321344</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8">
-        <v>0.006984682408029352</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0.2418568350328303</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10">
-        <v>0.05016110985890742</v>
-      </c>
-      <c r="E10">
-        <v>0.05444909143351601</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11">
-        <v>0.2111111111111111</v>
-      </c>
-      <c r="E11">
-        <v>0.2764705882352941</v>
-      </c>
-      <c r="F11">
-        <v>0.07999999999999996</v>
-      </c>
-      <c r="G11">
-        <v>0.07999999999999996</v>
-      </c>
-      <c r="H11">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="I11">
-        <v>0.09999999999999995</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="D1:J1"/>
-    <mergeCell ref="D2:J2"/>
-    <mergeCell ref="A5:A11"/>
-    <mergeCell ref="B5:B11"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet96.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:10">
-      <c r="C1" s="1"/>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="C2" s="1"/>
-      <c r="D2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="C3" s="1"/>
-      <c r="D3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7">
-        <v>0.08833199560743978</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8">
-        <v>0.007073201554306839</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0.2418568350328303</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10">
-        <v>0.05016110985890741</v>
-      </c>
-      <c r="E10">
-        <v>0.05444909143351601</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11">
-        <v>0.2111111111111111</v>
-      </c>
-      <c r="E11">
-        <v>0.2764705882352941</v>
-      </c>
-      <c r="F11">
-        <v>0.07999999999999997</v>
-      </c>
-      <c r="G11">
-        <v>0.07999999999999997</v>
-      </c>
-      <c r="H11">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="I11">
-        <v>0.09999999999999998</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="D1:J1"/>
-    <mergeCell ref="D2:J2"/>
-    <mergeCell ref="A5:A11"/>
-    <mergeCell ref="B5:B11"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet97.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:10">
-      <c r="C1" s="1"/>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="C2" s="1"/>
-      <c r="D2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="C3" s="1"/>
-      <c r="D3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7">
-        <v>0.08796944655877494</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8">
-        <v>0.007238599461142509</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0.2418568350328302</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10">
-        <v>0.05016110985890741</v>
-      </c>
-      <c r="E10">
-        <v>0.054449091433516</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11">
-        <v>0.2111111111111111</v>
-      </c>
-      <c r="E11">
-        <v>0.2764705882352941</v>
-      </c>
-      <c r="F11">
-        <v>0.07999999999999996</v>
-      </c>
-      <c r="G11">
-        <v>0.07999999999999997</v>
-      </c>
-      <c r="H11">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="I11">
-        <v>0.09999999999999998</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="D1:J1"/>
-    <mergeCell ref="D2:J2"/>
-    <mergeCell ref="A5:A11"/>
-    <mergeCell ref="B5:B11"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet98.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:10">
-      <c r="C1" s="1"/>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="C2" s="1"/>
-      <c r="D2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="C3" s="1"/>
-      <c r="D3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7">
-        <v>0.08731389701597701</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8">
-        <v>0.00753766664282501</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0.2418568350328302</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10">
-        <v>0.05016110985890741</v>
-      </c>
-      <c r="E10">
-        <v>0.054449091433516</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11">
-        <v>0.2111111111111111</v>
-      </c>
-      <c r="E11">
-        <v>0.2764705882352941</v>
-      </c>
-      <c r="F11">
-        <v>0.07999999999999996</v>
-      </c>
-      <c r="G11">
-        <v>0.07999999999999996</v>
-      </c>
-      <c r="H11">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="I11">
-        <v>0.09999999999999998</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="D1:J1"/>
-    <mergeCell ref="D2:J2"/>
-    <mergeCell ref="A5:A11"/>
-    <mergeCell ref="B5:B11"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet99.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:10">
-      <c r="C1" s="1"/>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="C2" s="1"/>
-      <c r="D2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="C3" s="1"/>
-      <c r="D3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7">
-        <v>0.0867474658269011</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8">
-        <v>0.007796077286528586</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0.2418568350328303</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10">
-        <v>0.05016110985890741</v>
-      </c>
-      <c r="E10">
-        <v>0.05444909143351601</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11">
-        <v>0.2111111111111111</v>
-      </c>
-      <c r="E11">
-        <v>0.2764705882352941</v>
-      </c>
-      <c r="F11">
-        <v>0.07999999999999996</v>
-      </c>
-      <c r="G11">
-        <v>0.07999999999999996</v>
-      </c>
-      <c r="H11">
-        <v>0.04000000000000003</v>
-      </c>
-      <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="J11">
         <v>0</v>

--- a/Recycling/SG2/SG2_Max.xlsx
+++ b/Recycling/SG2/SG2_Max.xlsx
@@ -656,7 +656,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.0005021089857497892</v>
+        <v>0.0005021089857497889</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -740,7 +740,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -749,13 +749,13 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.054449091433516</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -1018,7 +1018,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -1243,7 +1243,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -1521,7 +1521,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -1546,10 +1546,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.054449091433516</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -1574,7 +1574,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -1824,7 +1824,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -1852,7 +1852,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -2136,16 +2136,16 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999999</v>
+        <v>0.09999999999999995</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -2324,7 +2324,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.001566355586704328</v>
+        <v>0.001566355586704327</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -2380,7 +2380,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -2574,7 +2574,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.09973444393662148</v>
+        <v>0.09973444393662147</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -2658,10 +2658,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.0501611098589074</v>
       </c>
       <c r="E10">
-        <v>0.054449091433516</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -2695,7 +2695,7 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
@@ -2880,7 +2880,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.002397418509804171</v>
+        <v>0.002397418509804172</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -2911,7 +2911,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -2964,16 +2964,16 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
@@ -3158,7 +3158,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.002525088936797406</v>
+        <v>0.002525088936797407</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -3189,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -3242,22 +3242,22 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
       </c>
       <c r="H11">
-        <v>0.04000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.1</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -3467,7 +3467,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -3492,10 +3492,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.054449091433516</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -3535,7 +3535,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -3714,7 +3714,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.0005797390377379896</v>
+        <v>0.0005797390377379891</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -3798,22 +3798,22 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
+        <v>0.07999999999999997</v>
+      </c>
+      <c r="G11">
         <v>0.07999999999999996</v>
-      </c>
-      <c r="G11">
-        <v>0.07999999999999997</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999996</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -4048,7 +4048,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -4082,7 +4082,7 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
@@ -4270,7 +4270,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.001539651270677035</v>
+        <v>0.001539651270677034</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -4301,7 +4301,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -4329,7 +4329,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.054449091433516</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -4360,7 +4360,7 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
@@ -4369,7 +4369,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999996</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -4520,7 +4520,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.0990876650551623</v>
+        <v>0.09908766505516228</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -4641,13 +4641,13 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999999</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -4798,7 +4798,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.09762851090649556</v>
+        <v>0.09762851090649557</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -4826,7 +4826,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.002832053557939712</v>
+        <v>0.002832053557939711</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -4857,7 +4857,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -4882,7 +4882,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -5076,7 +5076,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.09593445185133395</v>
+        <v>0.09593445185133397</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -5163,7 +5163,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.054449091433516</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -5188,7 +5188,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -5197,13 +5197,13 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999995</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -5354,7 +5354,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.09458985731570362</v>
+        <v>0.09458985731570366</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -5382,7 +5382,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.004218312728572161</v>
+        <v>0.004218312728572159</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -5438,10 +5438,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.05444909143351602</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -5472,7 +5472,7 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
@@ -5481,7 +5481,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999996</v>
+        <v>0.1</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -5632,7 +5632,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.09320124682821199</v>
+        <v>0.09320124682821201</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -5691,7 +5691,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -5719,7 +5719,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.054449091433516</v>
+        <v>0.05444909143351602</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -5744,7 +5744,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -5753,13 +5753,13 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -5910,7 +5910,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08917279485062421</v>
+        <v>0.0891727948506242</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -5938,7 +5938,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.006689621910658986</v>
+        <v>0.006689621910658985</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -5969,7 +5969,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -5994,7 +5994,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -6247,7 +6247,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -6272,7 +6272,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890743</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -6306,7 +6306,7 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
@@ -6466,7 +6466,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.07527622480232496</v>
+        <v>0.07527622480232495</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -6550,7 +6550,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -6587,7 +6587,7 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
@@ -6772,7 +6772,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.0006593569202113744</v>
+        <v>0.0006593569202113741</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -6803,7 +6803,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -6871,7 +6871,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.1</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -7022,7 +7022,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.06952250819791879</v>
+        <v>0.06952250819791878</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -7050,7 +7050,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.01565424695394008</v>
+        <v>0.01565424695394007</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -7081,7 +7081,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -7106,10 +7106,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.054449091433516</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -7134,7 +7134,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -7300,7 +7300,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.06767341105338645</v>
+        <v>0.06767341105338644</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -7384,10 +7384,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351602</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -7412,7 +7412,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -7427,7 +7427,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999995</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -7578,7 +7578,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.06927650676313736</v>
+        <v>0.06927650676313735</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -7637,7 +7637,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -7662,7 +7662,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.0501611098589074</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -7699,13 +7699,13 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
-        <v>0.04000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -7856,7 +7856,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.06752666506181797</v>
+        <v>0.06752666506181794</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -7884,7 +7884,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.01656476727746353</v>
+        <v>0.01656476727746354</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -7940,7 +7940,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -7968,7 +7968,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -7977,7 +7977,7 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
@@ -8134,7 +8134,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.06912470217031584</v>
+        <v>0.06912470217031583</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -8162,7 +8162,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.01583572938930834</v>
+        <v>0.01583572938930835</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -8218,7 +8218,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="E10">
         <v>0.05444909143351602</v>
@@ -8246,7 +8246,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -8412,7 +8412,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.07531671910044004</v>
+        <v>0.07531671910044001</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -8440,7 +8440,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.01301087950180965</v>
+        <v>0.01301087950180966</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -8499,7 +8499,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351602</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -8524,7 +8524,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -8539,7 +8539,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999999</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -8690,7 +8690,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08376150430949737</v>
+        <v>0.08376150430949739</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -8718,7 +8718,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.009158297892786542</v>
+        <v>0.009158297892786547</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -8774,7 +8774,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -8802,22 +8802,22 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
       </c>
       <c r="H11">
-        <v>0.04000000000000004</v>
+        <v>0.04000000000000003</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999996</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -8968,7 +8968,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08838500066327354</v>
+        <v>0.08838500066327351</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -8996,7 +8996,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007049020204724222</v>
+        <v>0.007049020204724219</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -9052,7 +9052,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -9080,7 +9080,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -9092,10 +9092,10 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="H11">
-        <v>0.04000000000000004</v>
+        <v>0.04000000000000003</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -9274,7 +9274,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007173166529636068</v>
+        <v>0.007173166529636064</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -9305,7 +9305,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -9333,7 +9333,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351602</v>
+        <v>0.054449091433516</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -9358,13 +9358,13 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
@@ -9373,7 +9373,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999996</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -9524,7 +9524,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08786472098704391</v>
+        <v>0.08786472098704393</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -9552,7 +9552,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007286376142450244</v>
+        <v>0.007286376142450239</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -9636,16 +9636,16 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
@@ -9830,7 +9830,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.0007390553984311613</v>
+        <v>0.0007390553984311606</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -9914,13 +9914,13 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
@@ -10108,7 +10108,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007292199656320371</v>
+        <v>0.007292199656320374</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -10442,7 +10442,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -10479,7 +10479,7 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
@@ -10636,7 +10636,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08774625914890302</v>
+        <v>0.08774625914890305</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -10664,7 +10664,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007340419423326487</v>
+        <v>0.007340419423326488</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -10695,7 +10695,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -10720,7 +10720,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -10748,7 +10748,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -10757,7 +10757,7 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
@@ -11192,7 +11192,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08771146056820731</v>
+        <v>0.08771146056820733</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -11220,7 +11220,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007356294826748784</v>
+        <v>0.007356294826748783</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -11251,7 +11251,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -11276,10 +11276,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="E10">
-        <v>0.054449091433516</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -11304,7 +11304,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -11313,10 +11313,10 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
-        <v>0.04000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="I11">
         <v>0.09999999999999998</v>
@@ -11498,7 +11498,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007359109073528551</v>
+        <v>0.007359109073528546</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -11529,7 +11529,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -11554,10 +11554,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351602</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -11776,7 +11776,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007385023693050564</v>
+        <v>0.007385023693050566</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -11835,7 +11835,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.054449091433516</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -11875,7 +11875,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999999</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -12026,7 +12026,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08758277767873386</v>
+        <v>0.08758277767873383</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -12054,7 +12054,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007415001036688824</v>
+        <v>0.007415001036688826</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -12110,10 +12110,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.054449091433516</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -12138,7 +12138,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -12147,13 +12147,13 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
-        <v>0.04000000000000004</v>
+        <v>0.04000000000000003</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999996</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -12304,7 +12304,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.0875299905523954</v>
+        <v>0.08752999055239537</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -12363,7 +12363,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -12425,7 +12425,7 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
@@ -12610,7 +12610,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007470818781309152</v>
+        <v>0.007470818781309153</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -12666,7 +12666,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -12694,7 +12694,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -12709,7 +12709,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999996</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -12888,7 +12888,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.0008173734743654296</v>
+        <v>0.0008173734743654291</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -12981,7 +12981,7 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
@@ -13138,7 +13138,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.0873061536189859</v>
+        <v>0.08730615361898592</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -13166,7 +13166,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007541199245265544</v>
+        <v>0.007541199245265547</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -13222,7 +13222,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -13250,13 +13250,13 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
@@ -13265,7 +13265,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -13416,7 +13416,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08670718957461693</v>
+        <v>0.08670718957461691</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -13444,7 +13444,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.00781445164952174</v>
+        <v>0.007814451649521733</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -13500,7 +13500,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -13528,7 +13528,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -13537,13 +13537,13 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -13694,7 +13694,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08419047005880079</v>
+        <v>0.08419047005880093</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -13722,7 +13722,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.008962600131889719</v>
+        <v>0.008962600131889653</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -13753,7 +13753,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -13781,7 +13781,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.054449091433516</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -13806,7 +13806,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -13972,7 +13972,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08165850430983555</v>
+        <v>0.08165850430983566</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -14000,7 +14000,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.01011770407327567</v>
+        <v>0.01011770407327562</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -14031,7 +14031,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -14056,10 +14056,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="E10">
-        <v>0.054449091433516</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -14096,10 +14096,10 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="H11">
-        <v>0.04000000000000004</v>
+        <v>0.04000000000000003</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -14309,7 +14309,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -14334,7 +14334,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -14362,7 +14362,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -14377,7 +14377,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999996</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -14528,7 +14528,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08003071472105393</v>
+        <v>0.08003071472105382</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -14556,7 +14556,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.01086031529166086</v>
+        <v>0.01086031529166091</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -14646,16 +14646,16 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
+        <v>0.07999999999999996</v>
+      </c>
+      <c r="G11">
         <v>0.07999999999999995</v>
-      </c>
-      <c r="G11">
-        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -14806,7 +14806,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.07905097710613132</v>
+        <v>0.07905097710613108</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -14834,7 +14834,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.01130727978199162</v>
+        <v>0.01130727978199172</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -14865,7 +14865,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -14933,7 +14933,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999999</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -15084,7 +15084,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.07927360830015334</v>
+        <v>0.07927360830015473</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -15112,7 +15112,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.01120571357012821</v>
+        <v>0.01120571357012758</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -15143,7 +15143,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -15196,7 +15196,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -15205,13 +15205,13 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.1</v>
+        <v>0.09999999999999995</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -15362,7 +15362,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.09875945981877607</v>
+        <v>0.09875945981877755</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -15390,7 +15390,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.002316105209659227</v>
+        <v>0.00231610520965856</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -15446,7 +15446,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -15474,7 +15474,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -15640,7 +15640,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.09986387647108176</v>
+        <v>0.0998638764710824</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -15668,7 +15668,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.001812261100183449</v>
+        <v>0.001812261100183157</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -15699,7 +15699,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -15761,10 +15761,10 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="H11">
-        <v>0.04000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="I11">
         <v>0.09999999999999998</v>
@@ -15946,7 +15946,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.0008932354470016448</v>
+        <v>0.0008932354470016442</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -15977,7 +15977,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -16002,7 +16002,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -16036,16 +16036,16 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999999</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -16196,7 +16196,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.09841982911219072</v>
+        <v>0.09841982911219103</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -16224,7 +16224,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.002471047577245665</v>
+        <v>0.002471047577245521</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -16280,7 +16280,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -16474,7 +16474,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.09584453327057847</v>
+        <v>0.09584453327057865</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -16502,7 +16502,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.00364591906912776</v>
+        <v>0.003645919069127672</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -16533,7 +16533,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -16561,7 +16561,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.054449091433516</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -16586,7 +16586,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -16601,7 +16601,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -16752,7 +16752,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.09238292205941932</v>
+        <v>0.09238292205941954</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -16780,7 +16780,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.005225135042009629</v>
+        <v>0.005225135042009533</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -16811,7 +16811,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -16870,7 +16870,7 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
@@ -16879,7 +16879,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999999</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -17030,7 +17030,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08920443501018283</v>
+        <v>0.08920443501018295</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -17058,7 +17058,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.00667518740536318</v>
+        <v>0.006675187405363108</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -17114,10 +17114,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.054449091433516</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -17148,10 +17148,10 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
@@ -17308,7 +17308,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08772317466048719</v>
+        <v>0.08772317466048725</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -17336,7 +17336,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.00735095075992332</v>
+        <v>0.007350950759923305</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -17367,7 +17367,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -17392,10 +17392,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.054449091433516</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -17426,7 +17426,7 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
@@ -17435,7 +17435,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999995</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -17586,7 +17586,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08762288154354429</v>
+        <v>0.08762288154354426</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -17614,7 +17614,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007396705318302321</v>
+        <v>0.007396705318302323</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -17670,7 +17670,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890743</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -17704,16 +17704,16 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
       </c>
       <c r="H11">
-        <v>0.04000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -17864,7 +17864,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08763656264724612</v>
+        <v>0.08763656264724605</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -17892,7 +17892,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007390463884422353</v>
+        <v>0.007390463884422385</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -17923,7 +17923,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -17976,13 +17976,13 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
@@ -18142,7 +18142,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08752469227470927</v>
+        <v>0.08752469227470916</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -18170,7 +18170,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007441500083586752</v>
+        <v>0.007441500083586811</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -18226,7 +18226,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -18254,7 +18254,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -18269,7 +18269,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999999</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -18420,7 +18420,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08728985305051541</v>
+        <v>0.08728985305051509</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -18448,7 +18448,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007548635700871153</v>
+        <v>0.007548635700871293</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -18544,10 +18544,10 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="H11">
-        <v>0.04000000000000004</v>
+        <v>0.04000000000000003</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -18698,7 +18698,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08684743935515134</v>
+        <v>0.08684743935515074</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -18726,7 +18726,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007750468527182883</v>
+        <v>0.007750468527183163</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -18782,7 +18782,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -18810,7 +18810,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -18825,7 +18825,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999999</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -19004,7 +19004,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.0009658887078364458</v>
+        <v>0.0009658887078364453</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -19035,7 +19035,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -19060,10 +19060,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351602</v>
+        <v>0.054449091433516</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -19254,7 +19254,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08701159346023996</v>
+        <v>0.08701159346023986</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -19282,7 +19282,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007675580052147211</v>
+        <v>0.007675580052147274</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -19338,10 +19338,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.0501611098589074</v>
+        <v>0.05016110985890743</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.054449091433516</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -19375,7 +19375,7 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
@@ -19532,7 +19532,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08706482681758602</v>
+        <v>0.08706482681758597</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -19560,7 +19560,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007651294549506127</v>
+        <v>0.007651294549506154</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -19619,7 +19619,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.054449091433516</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -19659,7 +19659,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -19810,7 +19810,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08706823539507666</v>
+        <v>0.08706823539507656</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -19838,7 +19838,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007649739527959905</v>
+        <v>0.00764973952795994</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -19869,7 +19869,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -19894,7 +19894,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -20088,7 +20088,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08706524841460694</v>
+        <v>0.08706524841460685</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -20116,7 +20116,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007651102213420713</v>
+        <v>0.00765110221342076</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -20206,13 +20206,13 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="H11">
-        <v>0.04000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="I11">
         <v>0.09999999999999998</v>
@@ -20366,7 +20366,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08699835997544302</v>
+        <v>0.086998359975443</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -20394,7 +20394,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.00768161727854078</v>
+        <v>0.007681617278540769</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -20487,13 +20487,13 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999995</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -20644,7 +20644,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08677380784790623</v>
+        <v>0.08677380784790649</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -20672,7 +20672,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007784059836332227</v>
+        <v>0.007784059836332097</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -20703,7 +20703,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -20756,7 +20756,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -20765,7 +20765,7 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
@@ -20922,7 +20922,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08650004380355789</v>
+        <v>0.08650004380355779</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -20950,7 +20950,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007908953281974511</v>
+        <v>0.007908953281974553</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -21040,7 +21040,7 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
@@ -21200,7 +21200,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08659856631174276</v>
+        <v>0.08659856631174258</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -21228,7 +21228,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007864006490112849</v>
+        <v>0.007864006490112931</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -21259,7 +21259,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -21287,7 +21287,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.054449091433516</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -21312,7 +21312,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -21321,13 +21321,13 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="H11">
-        <v>0.04000000000000004</v>
+        <v>0.04000000000000003</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.1</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -21478,7 +21478,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08691869720638648</v>
+        <v>0.08691869720638637</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -21506,7 +21506,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007717960099748573</v>
+        <v>0.007717960099748632</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -21562,7 +21562,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -21590,13 +21590,13 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
@@ -21756,7 +21756,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08767157324475024</v>
+        <v>0.08767157324475022</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -21784,7 +21784,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007374491757159647</v>
+        <v>0.007374491757159664</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -21840,7 +21840,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890743</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -22062,7 +22062,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.001034850678231688</v>
+        <v>0.001034850678231687</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -22093,7 +22093,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -22152,7 +22152,7 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
@@ -22161,7 +22161,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999995</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -22312,7 +22312,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08892293519615765</v>
+        <v>0.08892293519615774</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -22340,7 +22340,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.006803609973801464</v>
+        <v>0.006803609973801419</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -22436,10 +22436,10 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="H11">
-        <v>0.04000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -22590,7 +22590,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08996275510437965</v>
+        <v>0.08996275510437977</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -22618,7 +22618,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.006329235438992034</v>
+        <v>0.006329235438991975</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -22677,7 +22677,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351602</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -22702,7 +22702,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -22711,7 +22711,7 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
@@ -22868,7 +22868,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.0898351822782129</v>
+        <v>0.08983518227821294</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -22896,7 +22896,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.006387435228771644</v>
+        <v>0.006387435228771631</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -22927,7 +22927,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -22986,7 +22986,7 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
@@ -23146,7 +23146,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08901531844894135</v>
+        <v>0.08901531844894134</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -23174,7 +23174,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.006761463961576732</v>
+        <v>0.006761463961576735</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -23424,7 +23424,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08852602788321344</v>
+        <v>0.08852602788321348</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -23452,7 +23452,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.006984682408029352</v>
+        <v>0.006984682408029337</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -23545,13 +23545,13 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999995</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -23702,7 +23702,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08833199560743978</v>
+        <v>0.0883319956074398</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -23730,7 +23730,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007073201554306839</v>
+        <v>0.007073201554306828</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -23761,7 +23761,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -23786,7 +23786,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -23820,16 +23820,16 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -23980,7 +23980,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08796944655877494</v>
+        <v>0.08796944655877487</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -24008,7 +24008,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007238599461142509</v>
+        <v>0.007238599461142553</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -24064,10 +24064,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="E10">
-        <v>0.054449091433516</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -24258,7 +24258,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08731389701597701</v>
+        <v>0.08731389701597687</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -24286,7 +24286,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.00753766664282501</v>
+        <v>0.007537666642825076</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -24317,7 +24317,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -24342,10 +24342,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="E10">
-        <v>0.054449091433516</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -24385,7 +24385,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -24536,7 +24536,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.0867474658269011</v>
+        <v>0.08674746582690109</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -24564,7 +24564,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007796077286528586</v>
+        <v>0.007796077286528598</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -24595,7 +24595,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -24657,10 +24657,10 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="H11">
-        <v>0.04000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="I11">
         <v>0.09999999999999998</v>
@@ -24814,7 +24814,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08670714172353318</v>
+        <v>0.0867071417235333</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -24842,7 +24842,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007814473479586161</v>
+        <v>0.007814473479586106</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -24926,7 +24926,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -24935,7 +24935,7 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
@@ -25176,10 +25176,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.054449091433516</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -25204,7 +25204,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -25370,7 +25370,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08711869870625603</v>
+        <v>0.08711869870625615</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -25398,7 +25398,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.00762671774353707</v>
+        <v>0.007626717743537017</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -25429,7 +25429,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -25454,10 +25454,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.054449091433516</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -25497,7 +25497,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999996</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J11">
         <v>0</v>

--- a/Recycling/SG2/SG2_Max.xlsx
+++ b/Recycling/SG2/SG2_Max.xlsx
@@ -687,7 +687,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -715,7 +715,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.054449091433516</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -755,7 +755,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999999</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.054449091433516</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999999</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -1521,7 +1521,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -1546,10 +1546,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.054449091433516</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -1574,7 +1574,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -1589,7 +1589,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999999</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -1799,7 +1799,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -1867,7 +1867,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -2046,7 +2046,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.00141995535116552</v>
+        <v>0.001419955351165519</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -2077,7 +2077,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -2105,7 +2105,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.054449091433516</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -2139,13 +2139,13 @@
         <v>0.07999999999999995</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999995</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -2380,7 +2380,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -2408,7 +2408,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -2602,7 +2602,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.001871309304433347</v>
+        <v>0.001871309304433344</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -2633,7 +2633,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -2658,7 +2658,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.0501611098589074</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -2695,7 +2695,7 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
@@ -2852,7 +2852,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.0985812226199182</v>
+        <v>0.09858122261991821</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -2880,7 +2880,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.002397418509804172</v>
+        <v>0.002397418509804159</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -2964,13 +2964,13 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
@@ -3130,7 +3130,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.0983013714855564</v>
+        <v>0.09830137148555662</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.002525088936797407</v>
+        <v>0.002525088936797309</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -3408,7 +3408,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.1002947941113718</v>
+        <v>0.1002947941113724</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -3436,7 +3436,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.001615672870301117</v>
+        <v>0.001615672870300825</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -3467,7 +3467,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -3495,7 +3495,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.054449091433516</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -3529,7 +3529,7 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
@@ -3810,7 +3810,7 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="H11">
-        <v>0.04000000000000004</v>
+        <v>0.04000000000000003</v>
       </c>
       <c r="I11">
         <v>0.09999999999999998</v>
@@ -3964,7 +3964,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.1015175979411343</v>
+        <v>0.1015175979411353</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -3992,7 +3992,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.001057819540777329</v>
+        <v>0.00105781954077686</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -4076,7 +4076,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -4091,7 +4091,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -4242,7 +4242,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.100461432003888</v>
+        <v>0.1004614320039035</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -4270,7 +4270,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.001539651270677034</v>
+        <v>0.001539651270669963</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -4354,13 +4354,13 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
@@ -4369,7 +4369,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -4520,7 +4520,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.09908766505516228</v>
+        <v>0.09908766505530435</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -4548,7 +4548,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.0021663752370922</v>
+        <v>0.002166375237027393</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -4579,7 +4579,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -4604,7 +4604,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -4641,7 +4641,7 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
@@ -4798,7 +4798,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.09762851090649557</v>
+        <v>0.09762851090750652</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -4826,7 +4826,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.002832053557939711</v>
+        <v>0.0028320535574785</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -4857,7 +4857,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -4882,7 +4882,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -4925,7 +4925,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.1</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -5076,7 +5076,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.09593445185133397</v>
+        <v>0.09593445185763382</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -5104,7 +5104,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.003604897460886435</v>
+        <v>0.00360489745801239</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -5135,7 +5135,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -5163,7 +5163,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.054449091433516</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -5188,7 +5188,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -5203,7 +5203,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999995</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -5354,7 +5354,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.09458985731570366</v>
+        <v>0.09458985735055192</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -5382,7 +5382,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.004218312728572159</v>
+        <v>0.004218312712674086</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -5413,7 +5413,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -5441,7 +5441,7 @@
         <v>0.05016110985890742</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351602</v>
+        <v>0.054449091433516</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -5472,7 +5472,7 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
@@ -5632,7 +5632,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.09320124682821201</v>
+        <v>0.09320124701581942</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -5660,7 +5660,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.00485180844146123</v>
+        <v>0.004851808355873159</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -5716,10 +5716,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351602</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -5759,7 +5759,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999999</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -5910,7 +5910,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.0891727948506242</v>
+        <v>0.08917279596807813</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -5938,7 +5938,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.006689621910658985</v>
+        <v>0.006689621400867167</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -5969,7 +5969,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -5994,7 +5994,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -6188,7 +6188,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08184194410746023</v>
+        <v>0.08184195081726116</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -6216,7 +6216,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.01003401730408067</v>
+        <v>0.01003401424301339</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -6306,7 +6306,7 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
@@ -6466,7 +6466,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.07527622480232495</v>
+        <v>0.07527625686066276</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -6494,7 +6494,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.01302935333913368</v>
+        <v>0.01302933871385197</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -6525,7 +6525,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -6550,7 +6550,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -6578,7 +6578,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -6587,13 +6587,13 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -6871,7 +6871,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.1</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -7022,7 +7022,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.06952250819791878</v>
+        <v>0.06952264322922745</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -7050,7 +7050,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.01565424695394007</v>
+        <v>0.01565418535152823</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -7081,7 +7081,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -7109,7 +7109,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.054449091433516</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -7134,7 +7134,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -7300,7 +7300,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.06767341105338644</v>
+        <v>0.06767392587819826</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -7328,7 +7328,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.01649782052934397</v>
+        <v>0.01649758566196098</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -7412,7 +7412,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -7427,7 +7427,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999999</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -7578,7 +7578,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.06927650676313735</v>
+        <v>0.06927831106076356</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -7606,7 +7606,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.01576647486500828</v>
+        <v>0.01576565172934766</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -7662,7 +7662,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.0501611098589074</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -7690,7 +7690,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -7705,7 +7705,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999999</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -7856,7 +7856,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.06752666506181794</v>
+        <v>0.06753324898221877</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -7884,7 +7884,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.01656476727746354</v>
+        <v>0.01656176363793648</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -7915,7 +7915,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -7940,7 +7940,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -7968,7 +7968,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -8134,7 +8134,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.06912470217031583</v>
+        <v>0.06914471758186369</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -8162,7 +8162,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.01583572938930835</v>
+        <v>0.01582659819123552</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -8193,7 +8193,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -8218,10 +8218,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351602</v>
+        <v>0.054449091433516</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -8246,16 +8246,16 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
@@ -8412,7 +8412,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.07531671910044001</v>
+        <v>0.07536115765671716</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -8440,7 +8440,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.01301087950180966</v>
+        <v>0.01299060626093892</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -8496,7 +8496,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -8530,10 +8530,10 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
@@ -8690,7 +8690,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08376150430949739</v>
+        <v>0.0838289441910703</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -8718,7 +8718,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.009158297892786547</v>
+        <v>0.009127531255029572</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -8749,7 +8749,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -8802,22 +8802,22 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
       </c>
       <c r="H11">
-        <v>0.04000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999999</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -8968,7 +8968,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08838500066327351</v>
+        <v>0.08847232881369875</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -8996,7 +8996,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007049020204724219</v>
+        <v>0.007009180372455013</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -9027,7 +9027,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -9092,10 +9092,10 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="H11">
-        <v>0.04000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999996</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -9246,7 +9246,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08811287429327815</v>
+        <v>0.08825317748412315</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -9274,7 +9274,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007173166529636064</v>
+        <v>0.007109159041067034</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -9364,7 +9364,7 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
@@ -9373,7 +9373,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -9524,7 +9524,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08786472098704393</v>
+        <v>0.08808821160721804</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -9552,7 +9552,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007286376142450239</v>
+        <v>0.007184417853191621</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -9611,7 +9611,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.05444909143351602</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -9636,7 +9636,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -9645,13 +9645,13 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -9889,7 +9889,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.054449091433516</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -10080,7 +10080,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08785195595601121</v>
+        <v>0.08816744468362481</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -10108,7 +10108,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007292199656320374</v>
+        <v>0.007148271061362788</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -10139,7 +10139,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -10164,10 +10164,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.05444909143351599</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -10207,7 +10207,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -10358,7 +10358,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08780527350646178</v>
+        <v>0.08819089427042386</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -10386,7 +10386,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.00731349658006041</v>
+        <v>0.007137573163831389</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -10442,7 +10442,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -10636,7 +10636,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08774625914890305</v>
+        <v>0.08822189540969023</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -10664,7 +10664,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007340419423326488</v>
+        <v>0.00712343018493497</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -10914,7 +10914,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08770946743510273</v>
+        <v>0.08830177834937414</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -10942,7 +10942,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007357204110733273</v>
+        <v>0.007086986920046384</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -11032,7 +11032,7 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
@@ -11192,7 +11192,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08771146056820733</v>
+        <v>0.08840229174262926</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -11220,7 +11220,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007356294826748783</v>
+        <v>0.007041131869772289</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -11276,7 +11276,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -11313,7 +11313,7 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
@@ -11470,7 +11470,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08770529179308657</v>
+        <v>0.08850710015910639</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -11498,7 +11498,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007359109073528546</v>
+        <v>0.006993317393998826</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -11557,7 +11557,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.054449091433516</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -11582,13 +11582,13 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
@@ -11597,7 +11597,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -11748,7 +11748,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08764848744269324</v>
+        <v>0.0885733142820548</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -11776,7 +11776,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007385023693050566</v>
+        <v>0.006963109957573438</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -11807,7 +11807,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -11860,7 +11860,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -11875,7 +11875,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -12026,7 +12026,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08758277767873383</v>
+        <v>0.0885770424080556</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -12054,7 +12054,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007415001036688826</v>
+        <v>0.006961409155325518</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -12113,7 +12113,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.054449091433516</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -12304,7 +12304,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08752999055239537</v>
+        <v>0.08853157153928194</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -12332,7 +12332,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007439082965013846</v>
+        <v>0.006982153345787079</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -12363,7 +12363,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -12388,7 +12388,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.0501611098589074</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -12416,7 +12416,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -12431,7 +12431,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999999</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -12582,7 +12582,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08746042625000131</v>
+        <v>0.08847483886018509</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -12610,7 +12610,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007470818781309153</v>
+        <v>0.007008035268264485</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -12641,7 +12641,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -12666,7 +12666,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -12706,10 +12706,10 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="H11">
-        <v>0.04000000000000004</v>
+        <v>0.04000000000000003</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -12984,7 +12984,7 @@
         <v>0.07999999999999997</v>
       </c>
       <c r="H11">
-        <v>0.04000000000000004</v>
+        <v>0.04000000000000003</v>
       </c>
       <c r="I11">
         <v>0.09999999999999998</v>
@@ -13138,7 +13138,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08730615361898592</v>
+        <v>0.08842599874372112</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -13166,7 +13166,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007541199245265547</v>
+        <v>0.007030316537688579</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -13222,7 +13222,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.0501611098589074</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -13250,22 +13250,22 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
+        <v>0.07999999999999996</v>
+      </c>
+      <c r="G11">
         <v>0.07999999999999997</v>
       </c>
-      <c r="G11">
-        <v>0.07999999999999996</v>
-      </c>
       <c r="H11">
-        <v>0.04000000000000004</v>
+        <v>0.04000000000000003</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999996</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -13416,7 +13416,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08670718957461691</v>
+        <v>0.088250528723732</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -13444,7 +13444,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007814451649521733</v>
+        <v>0.007110367427700564</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -13543,7 +13543,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999996</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -13694,7 +13694,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08419047005880093</v>
+        <v>0.08679122799604239</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -13722,7 +13722,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.008962600131889653</v>
+        <v>0.007776112619123677</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -13753,7 +13753,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -13781,7 +13781,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.054449091433516</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -13806,13 +13806,13 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
@@ -13821,7 +13821,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999996</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -13972,7 +13972,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08165850430983566</v>
+        <v>0.08370142409477639</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -14000,7 +14000,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.01011770407327562</v>
+        <v>0.009185706989000373</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -14031,7 +14031,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -14056,10 +14056,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.054449091433516</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -14096,10 +14096,10 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="H11">
-        <v>0.04000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999996</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -14250,7 +14250,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08055171531422071</v>
+        <v>0.08037777898604108</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -14278,7 +14278,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.01062263046560138</v>
+        <v>0.01070198167258852</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -14309,7 +14309,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -14334,10 +14334,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.054449091433516</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -14362,7 +14362,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -14528,7 +14528,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08003071472105382</v>
+        <v>0.07692989701065489</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -14556,7 +14556,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.01086031529166091</v>
+        <v>0.01227493425333722</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -14587,7 +14587,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -14612,10 +14612,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.054449091433516</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -14649,13 +14649,13 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999999</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -14806,7 +14806,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.07905097710613108</v>
+        <v>0.07307745520961177</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -14834,7 +14834,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.01130727978199172</v>
+        <v>0.01403245040858675</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -14893,7 +14893,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.054449091433516</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -15084,7 +15084,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.07927360830015473</v>
+        <v>0.07041278597262486</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -15112,7 +15112,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.01120571357012758</v>
+        <v>0.01524809479058179</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -15143,7 +15143,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -15196,7 +15196,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -15205,13 +15205,13 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999995</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -15362,7 +15362,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.09875945981877755</v>
+        <v>0.07127242150522792</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -15390,7 +15390,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.00231610520965856</v>
+        <v>0.0148559218742337</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -15474,7 +15474,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -15483,7 +15483,7 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
@@ -15640,7 +15640,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.0998638764710824</v>
+        <v>0.07445829172226526</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -15668,7 +15668,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.001812261100183157</v>
+        <v>0.01340250124800764</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -15699,7 +15699,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -15724,10 +15724,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.054449091433516</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -15752,7 +15752,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -15761,10 +15761,10 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
-        <v>0.04000000000000004</v>
+        <v>0.04000000000000003</v>
       </c>
       <c r="I11">
         <v>0.09999999999999998</v>
@@ -15977,7 +15977,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -16196,7 +16196,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.09841982911219103</v>
+        <v>0.0798021312958986</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -16224,7 +16224,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.002471047577245521</v>
+        <v>0.01096459696112671</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -16280,7 +16280,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -16317,7 +16317,7 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
@@ -16474,7 +16474,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.09584453327057865</v>
+        <v>0.08484122518777608</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -16502,7 +16502,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.003645919069127672</v>
+        <v>0.008665720201873414</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -16586,7 +16586,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -16598,10 +16598,10 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="H11">
-        <v>0.04000000000000004</v>
+        <v>0.04000000000000003</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999999</v>
+        <v>0.1</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -16752,7 +16752,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.09238292205941954</v>
+        <v>0.08749659794527738</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -16780,7 +16780,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.005225135042009533</v>
+        <v>0.007454316951536337</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -16811,7 +16811,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -16839,7 +16839,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.05444909143351602</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -16864,16 +16864,16 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
+        <v>0.07999999999999996</v>
+      </c>
+      <c r="G11">
         <v>0.07999999999999997</v>
-      </c>
-      <c r="G11">
-        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
@@ -17030,7 +17030,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08920443501018295</v>
+        <v>0.08815342636187787</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -17058,7 +17058,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.006675187405363108</v>
+        <v>0.007154666336934003</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -17089,7 +17089,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -17114,7 +17114,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -17142,16 +17142,16 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
@@ -17308,7 +17308,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08772317466048725</v>
+        <v>0.08816871335022798</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -17336,7 +17336,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007350950759923305</v>
+        <v>0.007147692285052629</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -17367,7 +17367,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -17392,7 +17392,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
         <v>0.054449091433516</v>
@@ -17420,7 +17420,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -17435,7 +17435,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999995</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -17586,7 +17586,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08762288154354426</v>
+        <v>0.08818173705759755</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -17614,7 +17614,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007396705318302323</v>
+        <v>0.007141750760875141</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -17670,10 +17670,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.05444909143351602</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -17698,7 +17698,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -17713,7 +17713,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999996</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -17864,7 +17864,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08763656264724605</v>
+        <v>0.08821957498855364</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -17892,7 +17892,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007390463884422385</v>
+        <v>0.00712448878045573</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -17923,7 +17923,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -17948,7 +17948,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -18142,7 +18142,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08752469227470916</v>
+        <v>0.08826524728881098</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -18170,7 +18170,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007441500083586811</v>
+        <v>0.00710365269526738</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -18201,7 +18201,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -18260,16 +18260,16 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -18420,7 +18420,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08728985305051509</v>
+        <v>0.08833030730916502</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -18448,7 +18448,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007548635700871293</v>
+        <v>0.007073971770093607</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -18504,7 +18504,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -18532,7 +18532,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -18547,7 +18547,7 @@
         <v>0.04000000000000003</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999999</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -18698,7 +18698,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08684743935515074</v>
+        <v>0.08840847533992727</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -18726,7 +18726,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007750468527183163</v>
+        <v>0.007038310860991356</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -18757,7 +18757,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -18782,10 +18782,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.054449091433516</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -18816,7 +18816,7 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
@@ -19035,7 +19035,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -19063,7 +19063,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.054449091433516</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -19254,7 +19254,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08701159346023986</v>
+        <v>0.08847263484007638</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -19282,7 +19282,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007675580052147274</v>
+        <v>0.007009040760663231</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -19313,7 +19313,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -19338,10 +19338,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890743</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.054449091433516</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -19375,7 +19375,7 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
@@ -19532,7 +19532,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08706482681758597</v>
+        <v>0.08849166937273382</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -19560,7 +19560,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007651294549506154</v>
+        <v>0.00700035704774016</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -19591,7 +19591,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -19619,7 +19619,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.054449091433516</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -19650,7 +19650,7 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
@@ -19659,7 +19659,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999996</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -19810,7 +19810,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08706823539507656</v>
+        <v>0.0884536616607501</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -19838,7 +19838,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.00764973952795994</v>
+        <v>0.007017696483683712</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -19869,7 +19869,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -19897,7 +19897,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.054449091433516</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -19922,7 +19922,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -19931,7 +19931,7 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
@@ -20088,7 +20088,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08706524841460685</v>
+        <v>0.08838839907627934</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -20116,7 +20116,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.00765110221342076</v>
+        <v>0.00704746982030094</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -20147,7 +20147,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -20175,7 +20175,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.054449091433516</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -20206,16 +20206,16 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -20366,7 +20366,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.086998359975443</v>
+        <v>0.0883040880512212</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -20394,7 +20394,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007681617278540769</v>
+        <v>0.007085933214755123</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -20425,7 +20425,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -20453,7 +20453,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.054449091433516</v>
+        <v>0.05444909143351602</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -20478,7 +20478,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -20487,7 +20487,7 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
@@ -20644,7 +20644,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08677380784790649</v>
+        <v>0.08813235369841424</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -20672,7 +20672,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007784059836332097</v>
+        <v>0.007164279862169201</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -20765,13 +20765,13 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -20922,7 +20922,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08650004380355779</v>
+        <v>0.08767876242404932</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -20950,7 +20950,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007908953281974553</v>
+        <v>0.00737121199346336</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -21034,13 +21034,13 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
@@ -21200,7 +21200,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08659856631174258</v>
+        <v>0.08655009625808355</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -21228,7 +21228,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007864006490112931</v>
+        <v>0.007886118933791765</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -21284,7 +21284,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.0501611098589074</v>
       </c>
       <c r="E10">
         <v>0.054449091433516</v>
@@ -21312,7 +21312,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -21321,13 +21321,13 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
-        <v>0.04000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.1</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -21478,7 +21478,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08691869720638637</v>
+        <v>0.08470509430337901</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -21506,7 +21506,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007717960099748632</v>
+        <v>0.008727824249361289</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -21562,10 +21562,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.054449091433516</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -21590,13 +21590,13 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
@@ -21605,7 +21605,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -21756,7 +21756,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08767157324475022</v>
+        <v>0.08277978433573487</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -21784,7 +21784,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007374491757159664</v>
+        <v>0.009606166751792168</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -21815,7 +21815,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -21840,7 +21840,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890743</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -21874,7 +21874,7 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
@@ -21883,7 +21883,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.1</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -22093,7 +22093,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -22161,7 +22161,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999995</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -22312,7 +22312,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08892293519615774</v>
+        <v>0.0810668728485929</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -22340,7 +22340,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.006803609973801419</v>
+        <v>0.01038761129181075</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -22396,7 +22396,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -22433,7 +22433,7 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
@@ -22590,7 +22590,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08996275510437977</v>
+        <v>0.0797420111592584</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -22618,7 +22618,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.006329235438991975</v>
+        <v>0.01099202427005383</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -22708,13 +22708,13 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
+        <v>0.07999999999999995</v>
+      </c>
+      <c r="G11">
         <v>0.07999999999999996</v>
       </c>
-      <c r="G11">
-        <v>0.07999999999999995</v>
-      </c>
       <c r="H11">
-        <v>0.04000000000000004</v>
+        <v>0.04000000000000003</v>
       </c>
       <c r="I11">
         <v>0.09999999999999998</v>
@@ -22868,7 +22868,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08983518227821294</v>
+        <v>0.07929794329707329</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -22896,7 +22896,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.006387435228771631</v>
+        <v>0.0111946117410978</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -22952,7 +22952,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.0501611098589074</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -22980,19 +22980,19 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
       </c>
       <c r="H11">
-        <v>0.04000000000000004</v>
+        <v>0.04000000000000003</v>
       </c>
       <c r="I11">
         <v>0.09999999999999998</v>
@@ -23146,7 +23146,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08901531844894134</v>
+        <v>0.0801221357417685</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -23174,7 +23174,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.006761463961576735</v>
+        <v>0.01081860825775013</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -23205,7 +23205,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -23258,7 +23258,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -23273,7 +23273,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -23424,7 +23424,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08852602788321348</v>
+        <v>0.08191407096337185</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -23452,7 +23452,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.006984682408029337</v>
+        <v>0.01000111242944825</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -23508,7 +23508,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -23545,13 +23545,13 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -23702,7 +23702,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.0883319956074398</v>
+        <v>0.08414416703541552</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -23730,7 +23730,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007073201554306828</v>
+        <v>0.008983723958241742</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -23761,7 +23761,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -23786,10 +23786,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.05444909143351602</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -23814,13 +23814,13 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
@@ -23829,7 +23829,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999996</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -23980,7 +23980,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08796944655877487</v>
+        <v>0.08615328520545339</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -24008,7 +24008,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007238599461142553</v>
+        <v>0.008067147453259663</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -24039,7 +24039,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -24064,7 +24064,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.0501611098589074</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -24101,13 +24101,13 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -24258,7 +24258,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08731389701597687</v>
+        <v>0.08741882469423419</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -24286,7 +24286,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007537666642825076</v>
+        <v>0.007489797758830476</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -24385,7 +24385,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999999</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -24536,7 +24536,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08674746582690109</v>
+        <v>0.08794803091339655</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -24564,7 +24564,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007796077286528598</v>
+        <v>0.00724836945759448</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -24595,7 +24595,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -24657,7 +24657,7 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
@@ -24814,7 +24814,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.0867071417235333</v>
+        <v>0.08809606142161909</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -24842,7 +24842,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007814473479586106</v>
+        <v>0.007180836702239049</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -24873,7 +24873,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.054449091433516</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -24926,7 +24926,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -24941,7 +24941,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999999</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -25151,7 +25151,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -25179,7 +25179,7 @@
         <v>0.05016110985890742</v>
       </c>
       <c r="E10">
-        <v>0.054449091433516</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -25219,7 +25219,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -25370,7 +25370,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08711869870625615</v>
+        <v>0.08814423126586277</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -25398,7 +25398,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007626717743537017</v>
+        <v>0.007158861216605184</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -25429,7 +25429,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -25454,7 +25454,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
         <v>0.054449091433516</v>
@@ -25482,7 +25482,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>

--- a/Recycling/SG2/SG2_Max.xlsx
+++ b/Recycling/SG2/SG2_Max.xlsx
@@ -628,7 +628,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.10273570485018</v>
+        <v>0.1027712839690038</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -656,7 +656,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.0005021089857497889</v>
+        <v>0.000485877494308341</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -687,7 +687,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -715,7 +715,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.054449091433516</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -755,7 +755,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -906,7 +906,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.1012913268853769</v>
+        <v>0.1014263860299321</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -934,7 +934,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.001161046287992891</v>
+        <v>0.001099431177180394</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -1027,13 +1027,13 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="H11">
-        <v>0.04000000000000004</v>
+        <v>0.04000000000000003</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -1184,7 +1184,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.1011643703894355</v>
+        <v>0.1013067693774633</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.0012189649027713</v>
+        <v>0.001154001294007048</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1271,7 +1271,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.054449091433516</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -1296,7 +1296,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -1462,7 +1462,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.1010399970185366</v>
+        <v>0.1011888576239877</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1490,7 +1490,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.001275705074310946</v>
+        <v>0.001207793621660398</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1521,7 +1521,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -1549,7 +1549,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.054449091433516</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -1574,7 +1574,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -1583,7 +1583,7 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
@@ -1740,7 +1740,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.100905110415399</v>
+        <v>0.1010599621174861</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1768,7 +1768,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.001337241470286321</v>
+        <v>0.001266596829266076</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1799,7 +1799,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -1827,7 +1827,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.05444909143351602</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -1852,13 +1852,13 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
@@ -1867,7 +1867,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999999</v>
+        <v>0.09999999999999995</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -2018,7 +2018,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.1007238031703567</v>
+        <v>0.100884957122064</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -2046,7 +2046,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.001419955351165519</v>
+        <v>0.001346435571183098</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -2077,7 +2077,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -2102,10 +2102,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="E10">
-        <v>0.054449091433516</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -2130,16 +2130,16 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
@@ -2296,7 +2296,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.1004028966538575</v>
+        <v>0.1005709461211913</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -2324,7 +2324,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.001566355586704327</v>
+        <v>0.001489690014848005</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -2380,7 +2380,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.0501611098589074</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -2574,7 +2574,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.09973444393662147</v>
+        <v>0.09989942916919657</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -2602,7 +2602,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.001871309304433344</v>
+        <v>0.001796041662090288</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -2633,7 +2633,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -2686,7 +2686,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -2695,13 +2695,13 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -2852,7 +2852,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.09858122261991821</v>
+        <v>0.09865449644437216</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -2880,7 +2880,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.002397418509804159</v>
+        <v>0.00236399037853431</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -2964,13 +2964,13 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
@@ -2979,7 +2979,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -3130,7 +3130,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.09830137148555662</v>
+        <v>0.09811942122924316</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.002525088936797309</v>
+        <v>0.002608096164793868</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -3217,7 +3217,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.054449091433516</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -3248,7 +3248,7 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
@@ -3257,7 +3257,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.1</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -3408,7 +3408,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.1002947941113724</v>
+        <v>0.1001271157814531</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -3436,7 +3436,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.001615672870300825</v>
+        <v>0.001692169126166061</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -3526,16 +3526,16 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
+        <v>0.07999999999999995</v>
+      </c>
+      <c r="G11">
         <v>0.07999999999999996</v>
       </c>
-      <c r="G11">
-        <v>0.07999999999999995</v>
-      </c>
       <c r="H11">
-        <v>0.04000000000000004</v>
+        <v>0.04000000000000003</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999999</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -3686,7 +3686,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.1025655412608422</v>
+        <v>0.1026124038839548</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -3714,7 +3714,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.0005797390377379891</v>
+        <v>0.000558359917312224</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -3798,19 +3798,19 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
       </c>
       <c r="H11">
-        <v>0.04000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="I11">
         <v>0.09999999999999998</v>
@@ -3964,7 +3964,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.1015175979411353</v>
+        <v>0.101544540159171</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -3992,7 +3992,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.00105781954077686</v>
+        <v>0.001045528275677608</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -4023,7 +4023,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -4076,7 +4076,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -4091,7 +4091,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999996</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -4242,7 +4242,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.1004614320039035</v>
+        <v>0.1005279187870959</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -4270,7 +4270,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.001539651270669963</v>
+        <v>0.001509319444361911</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -4369,7 +4369,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999999</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -4520,7 +4520,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.09908766505530435</v>
+        <v>0.099117136993759</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -4548,7 +4548,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.002166375237027393</v>
+        <v>0.002152929892325092</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -4579,7 +4579,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -4644,7 +4644,7 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="H11">
-        <v>0.04000000000000004</v>
+        <v>0.04000000000000003</v>
       </c>
       <c r="I11">
         <v>0.09999999999999998</v>
@@ -4798,7 +4798,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.09762851090750652</v>
+        <v>0.09758972354446106</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -4826,7 +4826,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.0028320535574785</v>
+        <v>0.002849748676754145</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -4882,10 +4882,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.05444909143351602</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -4916,7 +4916,7 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
@@ -4925,7 +4925,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999999</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -5076,7 +5076,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.09593445185763382</v>
+        <v>0.09583371344982601</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -5104,7 +5104,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.00360489745801239</v>
+        <v>0.003650855161806485</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -5163,7 +5163,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.054449091433516</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -5354,7 +5354,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.09458985735055192</v>
+        <v>0.09445194596685698</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -5382,7 +5382,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.004218312712674086</v>
+        <v>0.004281229038826259</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -5413,7 +5413,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -5441,7 +5441,7 @@
         <v>0.05016110985890742</v>
       </c>
       <c r="E10">
-        <v>0.054449091433516</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -5478,10 +5478,10 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="H11">
-        <v>0.04000000000000004</v>
+        <v>0.04000000000000003</v>
       </c>
       <c r="I11">
-        <v>0.1</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -5632,7 +5632,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.09320124701581942</v>
+        <v>0.0929484072373839</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -5660,7 +5660,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.004851808355873159</v>
+        <v>0.004967155976483499</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -5716,7 +5716,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -5759,7 +5759,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.1</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -5910,7 +5910,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08917279596807813</v>
+        <v>0.08873648094670857</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -5938,7 +5938,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.006689621400867167</v>
+        <v>0.00688867196111895</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -6034,7 +6034,7 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="H11">
-        <v>0.04000000000000004</v>
+        <v>0.04000000000000003</v>
       </c>
       <c r="I11">
         <v>0.09999999999999998</v>
@@ -6188,7 +6188,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08184195081726116</v>
+        <v>0.08116975947753378</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -6216,7 +6216,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.01003401424301339</v>
+        <v>0.01034067355157708</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -6247,7 +6247,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -6272,7 +6272,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -6306,7 +6306,7 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
@@ -6466,7 +6466,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.07527625686066276</v>
+        <v>0.0742444437697924</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -6494,7 +6494,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.01302933871385197</v>
+        <v>0.01350006047165025</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -6525,7 +6525,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -6550,10 +6550,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.054449091433516</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -6593,7 +6593,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999996</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -6744,7 +6744,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.1023910203850967</v>
+        <v>0.1024499199059663</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -6772,7 +6772,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.0006593569202113741</v>
+        <v>0.0006324864664028808</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -6828,7 +6828,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -6856,7 +6856,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -7022,7 +7022,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.06952264322922745</v>
+        <v>0.06875552005132207</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -7050,7 +7050,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.01565418535152823</v>
+        <v>0.01600415335827916</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -7300,7 +7300,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.06767392587819826</v>
+        <v>0.06759208486611737</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -7328,7 +7328,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.01649758566196098</v>
+        <v>0.01653492221584616</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -7387,7 +7387,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.054449091433516</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -7412,7 +7412,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -7421,7 +7421,7 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
@@ -7578,7 +7578,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.06927831106076356</v>
+        <v>0.06939302816931694</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -7606,7 +7606,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.01576565172934766</v>
+        <v>0.01571331682541439</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -7637,7 +7637,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -7665,7 +7665,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.054449091433516</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -7690,7 +7690,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -7705,7 +7705,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999996</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -7856,7 +7856,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.06753324898221877</v>
+        <v>0.06769161603732547</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -7884,7 +7884,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.01656176363793648</v>
+        <v>0.0164895152634811</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -7983,7 +7983,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -8134,7 +8134,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.06914471758186369</v>
+        <v>0.06932036712711073</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -8162,7 +8162,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.01582659819123552</v>
+        <v>0.01574646540030009</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -8193,7 +8193,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -8218,10 +8218,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="E10">
-        <v>0.054449091433516</v>
+        <v>0.05444909143351602</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -8252,16 +8252,16 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -8412,7 +8412,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.07536115765671716</v>
+        <v>0.07552343644257051</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -8440,7 +8440,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.01299060626093892</v>
+        <v>0.01291657332221567</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -8499,7 +8499,7 @@
         <v>0.05016110985890742</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.05444909143351602</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -8524,16 +8524,16 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
@@ -8690,7 +8690,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.0838289441910703</v>
+        <v>0.08397655123098646</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -8718,7 +8718,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.009127531255029572</v>
+        <v>0.009060191689455613</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -8802,22 +8802,22 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
       </c>
       <c r="H11">
-        <v>0.04000000000000004</v>
+        <v>0.04000000000000003</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -8968,7 +8968,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08847232881369875</v>
+        <v>0.08850474955521241</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -8996,7 +8996,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007009180372455013</v>
+        <v>0.006994389759145817</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -9027,7 +9027,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -9080,7 +9080,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -9089,13 +9089,13 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="H11">
-        <v>0.04000000000000004</v>
+        <v>0.04000000000000003</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -9246,7 +9246,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08825317748412315</v>
+        <v>0.0882995696686765</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -9274,7 +9274,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007109159041067034</v>
+        <v>0.007087994538644754</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -9305,7 +9305,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -9333,7 +9333,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.054449091433516</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -9358,7 +9358,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -9373,7 +9373,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999996</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -9524,7 +9524,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08808821160721804</v>
+        <v>0.0881459649331436</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -9552,7 +9552,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007184417853191621</v>
+        <v>0.007158070303098562</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -9636,7 +9636,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -9651,7 +9651,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999999</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -9802,7 +9802,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.1022163228450164</v>
+        <v>0.1022875988004417</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -9830,7 +9830,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.0007390553984311606</v>
+        <v>0.0007065387117139592</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -9861,7 +9861,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -9914,22 +9914,22 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999999</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -10080,7 +10080,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08816744468362481</v>
+        <v>0.08822607706123348</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -10108,7 +10108,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007148271061362788</v>
+        <v>0.007121522480543209</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -10164,10 +10164,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351599</v>
+        <v>0.054449091433516</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -10192,13 +10192,13 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
@@ -10358,7 +10358,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08819089427042386</v>
+        <v>0.08823193910499727</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -10386,7 +10386,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007137573163831389</v>
+        <v>0.007118848167172692</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -10470,7 +10470,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -10479,10 +10479,10 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="H11">
-        <v>0.04000000000000004</v>
+        <v>0.04000000000000003</v>
       </c>
       <c r="I11">
         <v>0.09999999999999998</v>
@@ -10636,7 +10636,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08822189540969023</v>
+        <v>0.0882315321524209</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -10664,7 +10664,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.00712343018493497</v>
+        <v>0.007119033822340075</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -10720,7 +10720,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -10914,7 +10914,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08830177834937414</v>
+        <v>0.08826405239850167</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -10942,7 +10942,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007086986920046384</v>
+        <v>0.007104197814215531</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -10973,7 +10973,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -10998,10 +10998,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.054449091433516</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -11026,13 +11026,13 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
@@ -11192,7 +11192,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08840229174262926</v>
+        <v>0.08831280367436066</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -11220,7 +11220,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007041131869772289</v>
+        <v>0.00708195707461811</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -11276,7 +11276,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -11304,22 +11304,22 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
+        <v>0.07999999999999995</v>
+      </c>
+      <c r="G11">
         <v>0.07999999999999996</v>
-      </c>
-      <c r="G11">
-        <v>0.07999999999999995</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -11470,7 +11470,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08850710015910639</v>
+        <v>0.0883769174404395</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -11498,7 +11498,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.006993317393998826</v>
+        <v>0.007052707838555168</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -11529,7 +11529,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -11557,7 +11557,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.054449091433516</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -11582,7 +11582,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -11597,7 +11597,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999999</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -11748,7 +11748,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.0885733142820548</v>
+        <v>0.08841333473128865</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -11776,7 +11776,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.006963109957573438</v>
+        <v>0.00703609396602879</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -12026,7 +12026,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.0885770424080556</v>
+        <v>0.08839677324289058</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -12054,7 +12054,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.006961409155325518</v>
+        <v>0.007043649455486595</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -12085,7 +12085,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -12138,7 +12138,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -12150,7 +12150,7 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="H11">
-        <v>0.04000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="I11">
         <v>0.09999999999999998</v>
@@ -12304,7 +12304,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08853157153928194</v>
+        <v>0.08834443215896498</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -12332,7 +12332,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.006982153345787079</v>
+        <v>0.007067527895534042</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -12363,7 +12363,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -12388,10 +12388,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.0501611098589074</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.054449091433516</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -12425,7 +12425,7 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
@@ -12582,7 +12582,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08847483886018509</v>
+        <v>0.08829140934855002</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -12610,7 +12610,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007008035268264485</v>
+        <v>0.007091717344905041</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -12641,7 +12641,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -12666,10 +12666,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.05444909143351602</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -12694,22 +12694,22 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="H11">
-        <v>0.04000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999999</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -12860,7 +12860,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.1020446511203467</v>
+        <v>0.1021282546286151</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -12888,7 +12888,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.0008173734743654291</v>
+        <v>0.0007792328549854224</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -12972,7 +12972,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -12984,10 +12984,10 @@
         <v>0.07999999999999997</v>
       </c>
       <c r="H11">
-        <v>0.04000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -13138,7 +13138,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08842599874372112</v>
+        <v>0.08824328889554614</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -13166,7 +13166,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007030316537688579</v>
+        <v>0.007113670297842417</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -13222,10 +13222,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.0501611098589074</v>
+        <v>0.05016110985890743</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.05444909143351602</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -13250,7 +13250,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -13259,13 +13259,13 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
         <v>0.04000000000000003</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999999</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -13416,7 +13416,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.088250528723732</v>
+        <v>0.08804501231681951</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -13444,7 +13444,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007110367427700564</v>
+        <v>0.007204125730608541</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -13500,10 +13500,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890743</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.05444909143351602</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -13528,13 +13528,13 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
@@ -13543,7 +13543,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999999</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -13694,7 +13694,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08679122799604239</v>
+        <v>0.08654526351212273</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -13722,7 +13722,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007776112619123677</v>
+        <v>0.00788832367289985</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -13781,7 +13781,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.054449091433516</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -13821,7 +13821,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -13972,7 +13972,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08370142409477639</v>
+        <v>0.08349156306325685</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -14000,7 +14000,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.009185706989000373</v>
+        <v>0.009281447345974237</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -14056,10 +14056,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.0501611098589074</v>
       </c>
       <c r="E10">
-        <v>0.054449091433516</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -14084,7 +14084,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -14250,7 +14250,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08037777898604108</v>
+        <v>0.0802171933909762</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -14278,7 +14278,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.01070198167258852</v>
+        <v>0.01077524216351936</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -14309,7 +14309,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -14337,7 +14337,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.054449091433516</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -14362,7 +14362,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -14371,13 +14371,13 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="H11">
-        <v>0.04000000000000004</v>
+        <v>0.04000000000000003</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -14528,7 +14528,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.07692989701065489</v>
+        <v>0.07682298944133126</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -14556,7 +14556,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.01227493425333722</v>
+        <v>0.01232370638018774</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -14612,7 +14612,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
         <v>0.054449091433516</v>
@@ -14640,7 +14640,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -14649,13 +14649,13 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999996</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -14806,7 +14806,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.07307745520961177</v>
+        <v>0.07307255670722503</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -14834,7 +14834,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.01403245040858675</v>
+        <v>0.01403468514632604</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -14865,7 +14865,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -14918,7 +14918,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -15084,7 +15084,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.07041278597262486</v>
+        <v>0.07052732673538267</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -15112,7 +15112,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.01524809479058179</v>
+        <v>0.01519584033707468</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -15143,7 +15143,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -15196,16 +15196,16 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
+        <v>0.07999999999999997</v>
+      </c>
+      <c r="G11">
         <v>0.07999999999999996</v>
-      </c>
-      <c r="G11">
-        <v>0.07999999999999995</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
@@ -15362,7 +15362,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.07127242150522792</v>
+        <v>0.07149332107800774</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -15390,7 +15390,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.0148559218742337</v>
+        <v>0.01475514564245697</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -15421,7 +15421,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -15483,7 +15483,7 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
@@ -15640,7 +15640,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.07445829172226526</v>
+        <v>0.0747440323523937</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -15668,7 +15668,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.01340250124800764</v>
+        <v>0.01327214398381071</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -15752,7 +15752,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -15767,7 +15767,7 @@
         <v>0.04000000000000003</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -15918,7 +15918,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.1018783631271352</v>
+        <v>0.1019739081814287</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -15946,7 +15946,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.0008932354470016442</v>
+        <v>0.0008496469944961147</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -15977,7 +15977,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -16045,7 +16045,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -16196,7 +16196,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.0798021312958986</v>
+        <v>0.08007048992854642</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -16224,7 +16224,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.01096459696112671</v>
+        <v>0.01084216950949032</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -16280,10 +16280,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.05444909143351602</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -16314,10 +16314,10 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
@@ -16474,7 +16474,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08484122518777608</v>
+        <v>0.08500744674655351</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -16502,7 +16502,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.008665720201873414</v>
+        <v>0.008589888537181432</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -16558,7 +16558,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -16586,7 +16586,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -16598,10 +16598,10 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="H11">
-        <v>0.04000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.1</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -16752,7 +16752,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08749659794527738</v>
+        <v>0.08757322703470702</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -16780,7 +16780,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007454316951536337</v>
+        <v>0.007419358120335269</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -16811,7 +16811,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -16839,7 +16839,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351602</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -16864,7 +16864,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -16873,7 +16873,7 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
@@ -17030,7 +17030,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08815342636187787</v>
+        <v>0.08820153036546227</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -17058,7 +17058,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007154666336934003</v>
+        <v>0.007132720888359323</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -17114,7 +17114,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890743</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -17142,7 +17142,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -17151,7 +17151,7 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
@@ -17308,7 +17308,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08816871335022798</v>
+        <v>0.08821362021865518</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -17336,7 +17336,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007147692285052629</v>
+        <v>0.007127205396264053</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -17367,7 +17367,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -17392,7 +17392,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890743</v>
       </c>
       <c r="E10">
         <v>0.054449091433516</v>
@@ -17420,22 +17420,22 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
       </c>
       <c r="H11">
-        <v>0.04000000000000004</v>
+        <v>0.04000000000000003</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999996</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -17586,7 +17586,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08818173705759755</v>
+        <v>0.08821739845729307</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -17614,7 +17614,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007141750760875141</v>
+        <v>0.00712548173221215</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -17670,10 +17670,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351602</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -17698,13 +17698,13 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
@@ -17713,7 +17713,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -17864,7 +17864,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08821957498855364</v>
+        <v>0.08823587061558573</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -17892,7 +17892,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.00712448878045573</v>
+        <v>0.007117054579175639</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -17991,7 +17991,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999996</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -18142,7 +18142,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08826524728881098</v>
+        <v>0.0882522340746861</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -18170,7 +18170,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.00710365269526738</v>
+        <v>0.007109589432338911</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -18201,7 +18201,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -18226,7 +18226,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -18260,16 +18260,16 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999996</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -18420,7 +18420,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08833030730916502</v>
+        <v>0.08827908372392157</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -18448,7 +18448,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007073971770093607</v>
+        <v>0.007097340397900204</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -18504,7 +18504,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -18532,19 +18532,19 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
       </c>
       <c r="H11">
-        <v>0.04000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="I11">
         <v>0.09999999999999998</v>
@@ -18698,7 +18698,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08840847533992727</v>
+        <v>0.08831581450774037</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -18726,7 +18726,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007038310860991356</v>
+        <v>0.007080583507260334</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -18816,7 +18816,7 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
@@ -18825,7 +18825,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -18976,7 +18976,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.101719108568828</v>
+        <v>0.1018259374886232</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -19004,7 +19004,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.0009658887078364453</v>
+        <v>0.0009171524615582642</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -19035,7 +19035,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -19060,10 +19060,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.054449091433516</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -19088,13 +19088,13 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
@@ -19103,7 +19103,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999999</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -19254,7 +19254,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08847263484007638</v>
+        <v>0.08834502034329089</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -19282,7 +19282,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007009040760663231</v>
+        <v>0.007067259560927466</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -19313,7 +19313,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -19341,7 +19341,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.054449091433516</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -19532,7 +19532,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08849166937273382</v>
+        <v>0.08834167630872408</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -19560,7 +19560,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.00700035704774016</v>
+        <v>0.007068785137452285</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -19591,7 +19591,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -19644,7 +19644,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -19659,7 +19659,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -19810,7 +19810,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.0884536616607501</v>
+        <v>0.08829446619538449</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -19838,7 +19838,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007017696483683712</v>
+        <v>0.007090322785824558</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -19869,7 +19869,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -19894,10 +19894,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="E10">
-        <v>0.054449091433516</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -19931,13 +19931,13 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999995</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -20088,7 +20088,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08838839907627934</v>
+        <v>0.0882278145604396</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -20116,7 +20116,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.00704746982030094</v>
+        <v>0.00712072981888024</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -20147,7 +20147,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -20175,7 +20175,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.054449091433516</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -20200,13 +20200,13 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
@@ -20215,7 +20215,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999996</v>
+        <v>0.1</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -20366,7 +20366,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.0883040880512212</v>
+        <v>0.08814553275011086</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -20394,7 +20394,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007085933214755123</v>
+        <v>0.007158267468611068</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -20453,7 +20453,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351602</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -20478,13 +20478,13 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
@@ -20493,7 +20493,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -20644,7 +20644,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08813235369841424</v>
+        <v>0.08797984130666119</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -20672,7 +20672,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007164279862169201</v>
+        <v>0.007233857290258877</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -20728,7 +20728,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -20765,13 +20765,13 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999996</v>
+        <v>0.1</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -20922,7 +20922,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08767876242404932</v>
+        <v>0.0875378905417795</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -20950,7 +20950,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.00737121199346336</v>
+        <v>0.007435478923814536</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -20981,7 +20981,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -21009,7 +21009,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.054449091433516</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -21034,7 +21034,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -21200,7 +21200,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08655009625808355</v>
+        <v>0.08643367547927035</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -21228,7 +21228,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007886118933791765</v>
+        <v>0.007939231066339897</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -21259,7 +21259,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -21284,10 +21284,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.0501611098589074</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.054449091433516</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -21312,7 +21312,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -21321,13 +21321,13 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -21478,7 +21478,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08470509430337901</v>
+        <v>0.08463451188033741</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -21506,7 +21506,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.008727824249361289</v>
+        <v>0.00876002454080727</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -21562,10 +21562,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890743</v>
       </c>
       <c r="E10">
-        <v>0.054449091433516</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -21590,13 +21590,13 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
@@ -21756,7 +21756,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08277978433573487</v>
+        <v>0.08277377729877033</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -21784,7 +21784,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.009606166751792168</v>
+        <v>0.009608907212272975</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -21868,7 +21868,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -21883,7 +21883,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.1</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -22034,7 +22034,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.1015679452485709</v>
+        <v>0.1016851983315617</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -22062,7 +22062,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.001034850678231687</v>
+        <v>0.0009813588415598629</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -22121,7 +22121,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.054449091433516</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -22146,22 +22146,22 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
+        <v>0.07999999999999996</v>
+      </c>
+      <c r="G11">
         <v>0.07999999999999997</v>
-      </c>
-      <c r="G11">
-        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.1</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -22312,7 +22312,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.0810668728485929</v>
+        <v>0.08113191722000497</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -22340,7 +22340,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.01038761129181075</v>
+        <v>0.01035793750581512</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -22424,7 +22424,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -22590,7 +22590,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.0797420111592584</v>
+        <v>0.07988677506321405</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -22618,7 +22618,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.01099202427005383</v>
+        <v>0.01092598176687307</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -22708,16 +22708,16 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="H11">
-        <v>0.04000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999995</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -22868,7 +22868,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.07929794329707329</v>
+        <v>0.07951938107922364</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -22896,7 +22896,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.0111946117410978</v>
+        <v>0.01109358997370693</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -22927,7 +22927,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -22952,7 +22952,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.0501611098589074</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -22989,13 +22989,13 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="H11">
-        <v>0.04000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -23146,7 +23146,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.0801221357417685</v>
+        <v>0.08038272349104418</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -23174,7 +23174,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.01081860825775013</v>
+        <v>0.01069972594807107</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -23233,7 +23233,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.054449091433516</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -23258,7 +23258,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -23273,7 +23273,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999999</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -23424,7 +23424,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08191407096337185</v>
+        <v>0.082158665014457</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -23452,7 +23452,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.01000111242944825</v>
+        <v>0.009889526578587715</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -23508,7 +23508,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -23551,7 +23551,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999999</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -23702,7 +23702,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08414416703541552</v>
+        <v>0.08432909889085383</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -23730,7 +23730,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.008983723958241742</v>
+        <v>0.008899356499798875</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -23786,10 +23786,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351602</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -23820,7 +23820,7 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
@@ -23980,7 +23980,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08615328520545339</v>
+        <v>0.08626657550313609</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -24008,7 +24008,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.008067147453259663</v>
+        <v>0.00801546347237345</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -24064,7 +24064,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.0501611098589074</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -24092,10 +24092,10 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
-        <v>0.2764705882352941</v>
+        <v>0.2764705882352942</v>
       </c>
       <c r="F11">
         <v>0.07999999999999996</v>
@@ -24107,7 +24107,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999999</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -24258,7 +24258,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08741882469423419</v>
+        <v>0.08748087204142635</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -24286,7 +24286,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007489797758830476</v>
+        <v>0.007461491240338475</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -24342,7 +24342,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -24379,7 +24379,7 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
@@ -24536,7 +24536,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08794803091339655</v>
+        <v>0.08798627835037567</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -24564,7 +24564,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.00724836945759448</v>
+        <v>0.007230920657103975</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
@@ -24814,7 +24814,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08809606142161909</v>
+        <v>0.08812350193726595</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -24842,7 +24842,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007180836702239049</v>
+        <v>0.007168318109603933</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -24938,10 +24938,10 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="H11">
-        <v>0.04000000000000004</v>
+        <v>0.04000000000000003</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -25092,7 +25092,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.1014253944541564</v>
+        <v>0.1015520787509205</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.001099883542338644</v>
+        <v>0.001042089107100433</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -25176,7 +25176,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -25210,7 +25210,7 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
@@ -25219,7 +25219,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999996</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -25370,7 +25370,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08814423126586277</v>
+        <v>0.08815976318961725</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -25398,7 +25398,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007158861216605184</v>
+        <v>0.007151775423144731</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -25457,7 +25457,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.054449091433516</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -25482,13 +25482,13 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>

--- a/Recycling/SG2/SG2_Max.xlsx
+++ b/Recycling/SG2/SG2_Max.xlsx
@@ -628,7 +628,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.1027712839690038</v>
+        <v>0.1141903155211153</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -656,7 +656,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.000485877494308341</v>
+        <v>0.0005398638825648233</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -687,7 +687,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -712,10 +712,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05573456650989712</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.0640577546276659</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -746,13 +746,13 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
       </c>
       <c r="H11">
-        <v>0.04000000000000004</v>
+        <v>0.04000000000000003</v>
       </c>
       <c r="I11">
         <v>0.09999999999999996</v>
@@ -906,7 +906,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.1014263860299321</v>
+        <v>0.1126959844777023</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -934,7 +934,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.001099431177180394</v>
+        <v>0.001221590196867104</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -990,10 +990,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05573456650989713</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.06405775462766589</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -1027,13 +1027,13 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
-        <v>0.04000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999996</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -1184,7 +1184,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.1013067693774633</v>
+        <v>0.1125630770860703</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.001154001294007048</v>
+        <v>0.001282223660007831</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1243,7 +1243,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -1268,10 +1268,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05573456650989712</v>
       </c>
       <c r="E10">
-        <v>0.054449091433516</v>
+        <v>0.06405775462766589</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -1462,7 +1462,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.1011888576239877</v>
+        <v>0.112432064026653</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1490,7 +1490,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.001207793621660398</v>
+        <v>0.001341992912955998</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1521,7 +1521,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -1546,10 +1546,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05573456650989713</v>
       </c>
       <c r="E10">
-        <v>0.054449091433516</v>
+        <v>0.06405775462766589</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -1580,7 +1580,7 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
@@ -1589,7 +1589,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -1740,7 +1740,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.1010599621174861</v>
+        <v>0.1122888467972068</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1768,7 +1768,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.001266596829266076</v>
+        <v>0.00140732981029564</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1799,7 +1799,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2845374529798004</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -1824,10 +1824,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05573456650989712</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351602</v>
+        <v>0.0640577546276659</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -1858,7 +1858,7 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
@@ -1867,7 +1867,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999995</v>
+        <v>0.1</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -2018,7 +2018,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.100884957122064</v>
+        <v>0.1120943968022933</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -2046,7 +2046,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.001346435571183098</v>
+        <v>0.001496039523536776</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -2077,7 +2077,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -2102,10 +2102,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05573456650989712</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.0640577546276659</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -2296,7 +2296,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.1005709461211913</v>
+        <v>0.1117454956902125</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -2324,7 +2324,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.001489690014848005</v>
+        <v>0.001655211127608894</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -2355,7 +2355,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -2380,10 +2380,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.0501611098589074</v>
+        <v>0.05573456650989712</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.0640577546276659</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -2417,13 +2417,13 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -2574,7 +2574,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.09989942916919657</v>
+        <v>0.1109993657435517</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -2602,7 +2602,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.001796041662090288</v>
+        <v>0.001995601846766987</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -2633,7 +2633,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -2658,10 +2658,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05573456650989712</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.0640577546276659</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -2852,7 +2852,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.09865449644437216</v>
+        <v>0.1096161071604135</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -2880,7 +2880,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.00236399037853431</v>
+        <v>0.002626655976149233</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -2911,7 +2911,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -2936,10 +2936,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05573456650989712</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.06405775462766589</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -2976,10 +2976,10 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="H11">
-        <v>0.04000000000000004</v>
+        <v>0.04000000000000003</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999996</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -3130,7 +3130,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.09811942122924316</v>
+        <v>0.1090215791436035</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.002608096164793868</v>
+        <v>0.002897884627548742</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -3189,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -3214,10 +3214,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05573456650989712</v>
       </c>
       <c r="E10">
-        <v>0.054449091433516</v>
+        <v>0.06405775462766589</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -3248,7 +3248,7 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
@@ -3257,7 +3257,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -3408,7 +3408,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.1001271157814531</v>
+        <v>0.1112523508682812</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -3436,7 +3436,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.001692169126166061</v>
+        <v>0.00188018791796229</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -3467,7 +3467,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -3492,10 +3492,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05573456650989713</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.06405775462766589</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -3526,13 +3526,13 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
       </c>
       <c r="H11">
-        <v>0.04000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="I11">
         <v>0.09999999999999998</v>
@@ -3686,7 +3686,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.1026124038839548</v>
+        <v>0.1140137820932831</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -3714,7 +3714,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.000558359917312224</v>
+        <v>0.0006203999081246933</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -3745,7 +3745,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -3770,10 +3770,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05573456650989712</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.0640577546276659</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -3964,7 +3964,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.101544540159171</v>
+        <v>0.1128272668435233</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -3992,7 +3992,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.001045528275677608</v>
+        <v>0.001161698084086231</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -4023,7 +4023,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -4048,10 +4048,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05573456650989712</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.0640577546276659</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -4242,7 +4242,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.1005279187870959</v>
+        <v>0.1116976875412176</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -4270,7 +4270,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.001509319444361911</v>
+        <v>0.001677021604846567</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -4301,7 +4301,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -4326,10 +4326,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05573456650989713</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.06405775462766589</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -4520,7 +4520,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.099117136993759</v>
+        <v>0.1101301522152878</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -4548,7 +4548,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.002152929892325092</v>
+        <v>0.002392144324805659</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -4579,7 +4579,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -4604,10 +4604,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05573456650989712</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.06405775462766589</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -4644,10 +4644,10 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="H11">
-        <v>0.04000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -4798,7 +4798,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.09758972354446106</v>
+        <v>0.1084330261605123</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -4826,7 +4826,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.002849748676754145</v>
+        <v>0.003166387418615716</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -4857,7 +4857,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -4882,10 +4882,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05573456650989713</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351602</v>
+        <v>0.0640577546276659</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -4916,10 +4916,10 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
@@ -5076,7 +5076,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.09583371344982601</v>
+        <v>0.10648190383314</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -5104,7 +5104,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.003650855161806485</v>
+        <v>0.00405650573534054</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -5135,7 +5135,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -5160,10 +5160,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05573456650989713</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.06405775462766589</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -5194,7 +5194,7 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
@@ -5354,7 +5354,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.09445194596685698</v>
+        <v>0.1049466066298411</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -5382,7 +5382,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.004281229038826259</v>
+        <v>0.0047569211542514</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -5413,7 +5413,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -5438,10 +5438,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05573456650989712</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.0640577546276659</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -5478,10 +5478,10 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="H11">
-        <v>0.04000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999999</v>
+        <v>0.1</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -5632,7 +5632,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.0929484072373839</v>
+        <v>0.1032760080415377</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -5660,7 +5660,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.004967155976483499</v>
+        <v>0.005519062196092776</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -5691,7 +5691,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2845374529798004</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -5716,10 +5716,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05573456650989712</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.0640577546276659</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -5759,7 +5759,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.1</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -5910,7 +5910,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08873648094670857</v>
+        <v>0.09859608994078729</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -5938,7 +5938,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.00688867196111895</v>
+        <v>0.007654079956798834</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -5969,7 +5969,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -5994,10 +5994,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05573456650989713</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.0640577546276659</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -6028,7 +6028,7 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
@@ -6188,7 +6188,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08116975947753378</v>
+        <v>0.0901886216417042</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -6216,7 +6216,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.01034067355157708</v>
+        <v>0.01148963727953009</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -6247,7 +6247,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -6272,10 +6272,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05573456650989713</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.06405775462766589</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -6315,7 +6315,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -6466,7 +6466,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.0742444437697924</v>
+        <v>0.08249382641088046</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -6494,7 +6494,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.01350006047165025</v>
+        <v>0.0150000671907225</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -6525,7 +6525,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -6550,10 +6550,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05573456650989712</v>
       </c>
       <c r="E10">
-        <v>0.054449091433516</v>
+        <v>0.06405775462766589</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -6593,7 +6593,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -6744,7 +6744,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.1024499199059663</v>
+        <v>0.1138332443399625</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -6772,7 +6772,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.0006324864664028808</v>
+        <v>0.0007027627404476453</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -6803,7 +6803,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -6828,10 +6828,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05573456650989712</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.0640577546276659</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -6865,13 +6865,13 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999999</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -7022,7 +7022,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.06875552005132207</v>
+        <v>0.07639502227924676</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -7050,7 +7050,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.01600415335827916</v>
+        <v>0.01778239262031018</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -7081,7 +7081,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -7106,10 +7106,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05573456650989712</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.0640577546276659</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -7300,7 +7300,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.06759208486611737</v>
+        <v>0.07510231651790819</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -7328,7 +7328,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.01653492221584616</v>
+        <v>0.01837213579538462</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -7359,7 +7359,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -7384,10 +7384,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05573456650989713</v>
       </c>
       <c r="E10">
-        <v>0.054449091433516</v>
+        <v>0.0640577546276659</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -7421,7 +7421,7 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
@@ -7578,7 +7578,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.06939302816931694</v>
+        <v>0.07710336463257438</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -7606,7 +7606,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.01571331682541439</v>
+        <v>0.0174592409171271</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -7637,7 +7637,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -7662,10 +7662,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05573456650989712</v>
       </c>
       <c r="E10">
-        <v>0.054449091433516</v>
+        <v>0.06405775462766589</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -7705,7 +7705,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -7856,7 +7856,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.06769161603732547</v>
+        <v>0.07521290670813942</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -7884,7 +7884,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.0164895152634811</v>
+        <v>0.01832168362609011</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -7915,7 +7915,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -7940,10 +7940,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05573456650989712</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.06405775462766589</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -7983,7 +7983,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999996</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -8134,7 +8134,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.06932036712711073</v>
+        <v>0.07702263014123414</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -8162,7 +8162,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.01574646540030009</v>
+        <v>0.0174960726670001</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -8193,7 +8193,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2845374529798004</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -8218,10 +8218,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05573456650989712</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351602</v>
+        <v>0.0640577546276659</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -8412,7 +8412,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.07552343644257051</v>
+        <v>0.0839149293806339</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -8440,7 +8440,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.01291657332221567</v>
+        <v>0.01435174813579519</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -8471,7 +8471,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -8496,10 +8496,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05573456650989712</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351602</v>
+        <v>0.0640577546276659</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -8690,7 +8690,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08397655123098646</v>
+        <v>0.09330727914554052</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -8718,7 +8718,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.009060191689455613</v>
+        <v>0.01006687965495068</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -8749,7 +8749,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -8774,10 +8774,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05573456650989713</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.06405775462766589</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -8808,13 +8808,13 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="H11">
-        <v>0.04000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="I11">
         <v>0.09999999999999996</v>
@@ -8968,7 +8968,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08850474955521241</v>
+        <v>0.09833861061690269</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -8996,7 +8996,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.006994389759145817</v>
+        <v>0.007771544176828685</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -9027,7 +9027,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -9052,10 +9052,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05573456650989712</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.0640577546276659</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -9089,13 +9089,13 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
-        <v>0.04000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999999</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -9246,7 +9246,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.0882995696686765</v>
+        <v>0.09811063296519611</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -9274,7 +9274,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007087994538644754</v>
+        <v>0.00787554948738306</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -9305,7 +9305,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -9330,10 +9330,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05573456650989711</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.06405775462766589</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -9373,7 +9373,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -9524,7 +9524,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.0881459649331436</v>
+        <v>0.09793996103682623</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -9552,7 +9552,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007158070303098562</v>
+        <v>0.00795341144788729</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -9583,7 +9583,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -9608,10 +9608,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05573456650989712</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351602</v>
+        <v>0.0640577546276659</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -9651,7 +9651,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -9802,7 +9802,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.1022875988004417</v>
+        <v>0.1136528875560463</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -9830,7 +9830,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.0007065387117139592</v>
+        <v>0.0007850430130155101</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -9861,7 +9861,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -9886,10 +9886,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05573456650989712</v>
       </c>
       <c r="E10">
-        <v>0.054449091433516</v>
+        <v>0.06405775462766589</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -9920,7 +9920,7 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G11">
         <v>0.07999999999999995</v>
@@ -9929,7 +9929,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -10080,7 +10080,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08822607706123348</v>
+        <v>0.09802897451248163</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -10108,7 +10108,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007121522480543209</v>
+        <v>0.007912802756159121</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -10139,7 +10139,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -10164,10 +10164,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05573456650989712</v>
       </c>
       <c r="E10">
-        <v>0.054449091433516</v>
+        <v>0.06405775462766589</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -10198,16 +10198,16 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
       </c>
       <c r="H11">
-        <v>0.04000000000000004</v>
+        <v>0.04000000000000003</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999996</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -10358,7 +10358,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08823193910499727</v>
+        <v>0.09803548789444141</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -10386,7 +10386,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007118848167172692</v>
+        <v>0.007909831296858547</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -10417,7 +10417,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -10442,10 +10442,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05573456650989712</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.06405775462766589</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -10479,13 +10479,13 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
-        <v>0.04000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999995</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -10636,7 +10636,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.0882315321524209</v>
+        <v>0.09803503572491211</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -10664,7 +10664,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007119033822340075</v>
+        <v>0.007910037580377862</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -10695,7 +10695,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2845374529798004</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -10720,10 +10720,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05573456650989713</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.0640577546276659</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -10763,7 +10763,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -10914,7 +10914,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08826405239850167</v>
+        <v>0.09807116933166851</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -10942,7 +10942,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007104197814215531</v>
+        <v>0.007893553126906145</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -10973,7 +10973,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -10998,10 +10998,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05573456650989713</v>
       </c>
       <c r="E10">
-        <v>0.054449091433516</v>
+        <v>0.06405775462766589</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -11041,7 +11041,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -11192,7 +11192,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08831280367436066</v>
+        <v>0.09812533741595628</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -11220,7 +11220,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.00708195707461811</v>
+        <v>0.007868841194020123</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -11251,7 +11251,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -11276,10 +11276,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05573456650989713</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.0640577546276659</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -11310,7 +11310,7 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
@@ -11319,7 +11319,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999996</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -11470,7 +11470,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.0883769174404395</v>
+        <v>0.09819657493382165</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -11498,7 +11498,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007052707838555168</v>
+        <v>0.007836342042839077</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -11529,7 +11529,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -11554,10 +11554,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05573456650989713</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.06405775462766589</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -11597,7 +11597,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999996</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -11748,7 +11748,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08841333473128865</v>
+        <v>0.09823703859032072</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -11776,7 +11776,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.00703609396602879</v>
+        <v>0.007817882184476434</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -11807,7 +11807,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -11832,10 +11832,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05573456650989712</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.0640577546276659</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -11869,7 +11869,7 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
@@ -12026,7 +12026,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08839677324289058</v>
+        <v>0.09821863693654509</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -12054,7 +12054,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007043649455486595</v>
+        <v>0.007826277172762885</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -12085,7 +12085,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -12110,10 +12110,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05573456650989712</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.0640577546276659</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -12150,7 +12150,7 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="H11">
-        <v>0.04000000000000004</v>
+        <v>0.04000000000000003</v>
       </c>
       <c r="I11">
         <v>0.09999999999999998</v>
@@ -12304,7 +12304,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08834443215896498</v>
+        <v>0.09816048017662778</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -12332,7 +12332,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007067527895534042</v>
+        <v>0.007852808772815602</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -12363,7 +12363,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -12388,10 +12388,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05573456650989712</v>
       </c>
       <c r="E10">
-        <v>0.054449091433516</v>
+        <v>0.06405775462766589</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -12428,7 +12428,7 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="H11">
-        <v>0.04000000000000004</v>
+        <v>0.04000000000000003</v>
       </c>
       <c r="I11">
         <v>0.09999999999999998</v>
@@ -12582,7 +12582,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08829140934855002</v>
+        <v>0.09810156594283335</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -12610,7 +12610,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007091717344905041</v>
+        <v>0.00787968593878338</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -12641,7 +12641,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -12666,10 +12666,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05573456650989713</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351602</v>
+        <v>0.0640577546276659</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -12703,7 +12703,7 @@
         <v>0.07999999999999995</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
@@ -12860,7 +12860,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.1021282546286151</v>
+        <v>0.113475838476239</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -12888,7 +12888,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.0007792328549854224</v>
+        <v>0.0008658142833171359</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -12919,7 +12919,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -12944,10 +12944,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05573456650989712</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.0640577546276659</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -12978,16 +12978,16 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999999</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -13138,7 +13138,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08824328889554614</v>
+        <v>0.09804809877282904</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -13166,7 +13166,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007113670297842417</v>
+        <v>0.007904078108713797</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -13197,7 +13197,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2845374529798004</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -13222,10 +13222,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890743</v>
+        <v>0.05573456650989712</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351602</v>
+        <v>0.0640577546276659</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -13256,16 +13256,16 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
       </c>
       <c r="H11">
-        <v>0.04000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -13416,7 +13416,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08804501231681951</v>
+        <v>0.09782779146313278</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -13444,7 +13444,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007204125730608541</v>
+        <v>0.008004584145120602</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -13475,7 +13475,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2845374529798004</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -13500,10 +13500,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890743</v>
+        <v>0.05573456650989712</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351602</v>
+        <v>0.0640577546276659</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -13534,16 +13534,16 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999996</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -13694,7 +13694,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08654526351212273</v>
+        <v>0.0961614039023586</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -13722,7 +13722,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.00788832367289985</v>
+        <v>0.008764804080999833</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -13753,7 +13753,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -13778,10 +13778,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05573456650989713</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.06405775462766589</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -13812,7 +13812,7 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
@@ -13821,7 +13821,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999996</v>
+        <v>0.1</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -13972,7 +13972,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08349156306325685</v>
+        <v>0.09276840340361872</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -14000,7 +14000,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.009281447345974237</v>
+        <v>0.01031271927330471</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -14031,7 +14031,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -14056,10 +14056,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.0501611098589074</v>
+        <v>0.05573456650989712</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.06405775462766589</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -14090,7 +14090,7 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
@@ -14099,7 +14099,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999995</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -14250,7 +14250,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.0802171933909762</v>
+        <v>0.08913021487886244</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -14278,7 +14278,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.01077524216351936</v>
+        <v>0.01197249129279928</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -14309,7 +14309,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -14334,10 +14334,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05573456650989712</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.06405775462766589</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -14371,13 +14371,13 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
-        <v>0.04000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999996</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -14528,7 +14528,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.07682298944133126</v>
+        <v>0.08535887715703473</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -14556,7 +14556,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.01232370638018774</v>
+        <v>0.01369300708909748</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -14587,7 +14587,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -14612,10 +14612,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05573456650989712</v>
       </c>
       <c r="E10">
-        <v>0.054449091433516</v>
+        <v>0.06405775462766589</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -14649,13 +14649,13 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -14806,7 +14806,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.07307255670722503</v>
+        <v>0.08119172967469447</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -14834,7 +14834,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.01403468514632604</v>
+        <v>0.01559409460702893</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -14865,7 +14865,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2845374529798004</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -14890,10 +14890,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05573456650989711</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.0640577546276659</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -14927,13 +14927,13 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -15084,7 +15084,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.07052732673538267</v>
+        <v>0.07836369637264741</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -15112,7 +15112,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.01519584033707468</v>
+        <v>0.01688426704119408</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -15143,7 +15143,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -15168,10 +15168,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05573456650989712</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.06405775462766589</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -15202,7 +15202,7 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
@@ -15362,7 +15362,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.07149332107800774</v>
+        <v>0.07943702342000861</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -15390,7 +15390,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.01475514564245697</v>
+        <v>0.01639460626939663</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -15421,7 +15421,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -15446,10 +15446,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05573456650989712</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.06405775462766589</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -15489,7 +15489,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -15640,7 +15640,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.0747440323523937</v>
+        <v>0.08304892483599301</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -15668,7 +15668,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.01327214398381071</v>
+        <v>0.01474682664867857</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -15699,7 +15699,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -15724,10 +15724,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05573456650989713</v>
       </c>
       <c r="E10">
-        <v>0.054449091433516</v>
+        <v>0.06405775462766589</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -15767,7 +15767,7 @@
         <v>0.04000000000000003</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999999</v>
+        <v>0.1</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -15918,7 +15918,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.1019739081814287</v>
+        <v>0.1133043424238097</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -15946,7 +15946,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.0008496469944961147</v>
+        <v>0.0009440522161067942</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -15977,7 +15977,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -16002,10 +16002,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05573456650989712</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.0640577546276659</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -16045,7 +16045,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999996</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -16196,7 +16196,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08007048992854642</v>
+        <v>0.08896721103171823</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -16224,7 +16224,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.01084216950949032</v>
+        <v>0.0120468550105448</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -16255,7 +16255,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -16280,10 +16280,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05573456650989712</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351602</v>
+        <v>0.0640577546276659</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -16314,10 +16314,10 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
@@ -16474,7 +16474,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08500744674655351</v>
+        <v>0.09445271860728167</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -16502,7 +16502,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.008589888537181432</v>
+        <v>0.009544320596868255</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -16533,7 +16533,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2845374529798004</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -16558,10 +16558,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05573456650989712</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.0640577546276659</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -16601,7 +16601,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999999</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -16752,7 +16752,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08757322703470702</v>
+        <v>0.0973035855941189</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -16780,7 +16780,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007419358120335269</v>
+        <v>0.008243731244816964</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -16811,7 +16811,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -16836,10 +16836,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05573456650989712</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.06405775462766589</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -16876,7 +16876,7 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="H11">
-        <v>0.04000000000000004</v>
+        <v>0.04000000000000003</v>
       </c>
       <c r="I11">
         <v>0.09999999999999998</v>
@@ -17030,7 +17030,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08820153036546227</v>
+        <v>0.09800170040606918</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -17058,7 +17058,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007132720888359323</v>
+        <v>0.00792524543151036</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -17089,7 +17089,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -17114,10 +17114,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890743</v>
+        <v>0.05573456650989713</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.06405775462766589</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -17157,7 +17157,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -17308,7 +17308,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08821362021865518</v>
+        <v>0.09801513357628353</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -17336,7 +17336,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007127205396264053</v>
+        <v>0.007919117106960057</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -17367,7 +17367,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -17392,10 +17392,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890743</v>
+        <v>0.05573456650989713</v>
       </c>
       <c r="E10">
-        <v>0.054449091433516</v>
+        <v>0.06405775462766589</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -17426,13 +17426,13 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
       </c>
       <c r="H11">
-        <v>0.04000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="I11">
         <v>0.09999999999999998</v>
@@ -17586,7 +17586,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08821739845729307</v>
+        <v>0.0980193316192145</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -17614,7 +17614,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.00712548173221215</v>
+        <v>0.007917201924680166</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -17645,7 +17645,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -17670,10 +17670,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05573456650989712</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.0640577546276659</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -17713,7 +17713,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999999</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -17864,7 +17864,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08823587061558573</v>
+        <v>0.09803985623953969</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -17892,7 +17892,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007117054579175639</v>
+        <v>0.007907838421306265</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -17923,7 +17923,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -17948,10 +17948,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05573456650989713</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.0640577546276659</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -17991,7 +17991,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.1</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -18142,7 +18142,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.0882522340746861</v>
+        <v>0.09805803786076235</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -18170,7 +18170,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007109589432338911</v>
+        <v>0.007899543813709902</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -18201,7 +18201,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -18226,10 +18226,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05573456650989712</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.06405775462766589</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -18263,7 +18263,7 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
@@ -18420,7 +18420,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08827908372392157</v>
+        <v>0.0980878708043573</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -18448,7 +18448,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007097340397900204</v>
+        <v>0.007885933775444672</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -18479,7 +18479,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -18504,10 +18504,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05573456650989712</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.0640577546276659</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -18538,7 +18538,7 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
@@ -18547,7 +18547,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -18698,7 +18698,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08831581450774037</v>
+        <v>0.09812868278637819</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -18726,7 +18726,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007080583507260334</v>
+        <v>0.007867315008067038</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -18757,7 +18757,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -18782,10 +18782,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05573456650989712</v>
       </c>
       <c r="E10">
-        <v>0.054449091433516</v>
+        <v>0.06405775462766589</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -18825,7 +18825,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999996</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -18976,7 +18976,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.1018259374886232</v>
+        <v>0.1131399305429147</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -19004,7 +19004,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.0009171524615582642</v>
+        <v>0.001019058290620294</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -19035,7 +19035,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -19060,10 +19060,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05573456650989712</v>
       </c>
       <c r="E10">
-        <v>0.054449091433516</v>
+        <v>0.06405775462766589</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -19094,7 +19094,7 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
@@ -19254,7 +19254,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08834502034329089</v>
+        <v>0.09816113371476766</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -19282,7 +19282,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007067259560927466</v>
+        <v>0.007852510623252739</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -19313,7 +19313,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -19338,10 +19338,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05573456650989712</v>
       </c>
       <c r="E10">
-        <v>0.054449091433516</v>
+        <v>0.06405775462766589</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -19532,7 +19532,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08834167630872408</v>
+        <v>0.09815741812080453</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -19560,7 +19560,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007068785137452285</v>
+        <v>0.007854205708280316</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -19591,7 +19591,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -19616,10 +19616,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05573456650989712</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.0640577546276659</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -19650,7 +19650,7 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
@@ -19659,7 +19659,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999996</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -19810,7 +19810,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08829446619538449</v>
+        <v>0.09810496243931609</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -19838,7 +19838,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007090322785824558</v>
+        <v>0.007878136428693954</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -19869,7 +19869,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -19894,10 +19894,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05573456650989713</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.0640577546276659</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -19937,7 +19937,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999995</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -20088,7 +20088,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.0882278145604396</v>
+        <v>0.09803090506715512</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -20116,7 +20116,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.00712072981888024</v>
+        <v>0.007911922020978044</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -20147,7 +20147,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -20172,10 +20172,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05573456650989713</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.0640577546276659</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -20206,7 +20206,7 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
@@ -20215,7 +20215,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.1</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -20366,7 +20366,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08814553275011086</v>
+        <v>0.09793948083345651</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -20394,7 +20394,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007158267468611068</v>
+        <v>0.007953630520678965</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -20425,7 +20425,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -20450,10 +20450,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05573456650989712</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.06405775462766589</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -20484,7 +20484,7 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
@@ -20644,7 +20644,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08797984130666119</v>
+        <v>0.09775537922962353</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -20672,7 +20672,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007233857290258877</v>
+        <v>0.008037619211398752</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -20703,7 +20703,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -20728,10 +20728,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05573456650989712</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.0640577546276659</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -20765,13 +20765,13 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.1</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -20922,7 +20922,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.0875378905417795</v>
+        <v>0.09726432282419945</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -20950,7 +20950,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007435478923814536</v>
+        <v>0.008261643248682818</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -20981,7 +20981,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -21006,10 +21006,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05573456650989712</v>
       </c>
       <c r="E10">
-        <v>0.054449091433516</v>
+        <v>0.06405775462766589</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -21043,13 +21043,13 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -21200,7 +21200,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08643367547927035</v>
+        <v>0.09603741719918928</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -21228,7 +21228,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007939231066339897</v>
+        <v>0.008821367851488775</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -21259,7 +21259,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -21284,10 +21284,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05573456650989713</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.06405775462766589</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -21321,13 +21321,13 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999996</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -21478,7 +21478,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08463451188033741</v>
+        <v>0.09403834653370824</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -21506,7 +21506,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.00876002454080727</v>
+        <v>0.009733360600896966</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -21537,7 +21537,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -21562,10 +21562,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890743</v>
+        <v>0.05573456650989712</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.06405775462766589</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -21605,7 +21605,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999999</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -21756,7 +21756,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08277377729877033</v>
+        <v>0.09197086366530036</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -21784,7 +21784,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.009608907212272975</v>
+        <v>0.01067656356919219</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -21815,7 +21815,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -21840,10 +21840,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05573456650989713</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.0640577546276659</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -22034,7 +22034,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.1016851983315617</v>
+        <v>0.1129835537017352</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -22062,7 +22062,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.0009813588415598629</v>
+        <v>0.001090398712844292</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -22093,7 +22093,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -22118,10 +22118,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05573456650989712</v>
       </c>
       <c r="E10">
-        <v>0.054449091433516</v>
+        <v>0.0640577546276659</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -22155,7 +22155,7 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
@@ -22312,7 +22312,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08113191722000497</v>
+        <v>0.09014657468889441</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -22340,7 +22340,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.01035793750581512</v>
+        <v>0.01150881945090569</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -22371,7 +22371,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -22396,10 +22396,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05573456650989712</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.0640577546276659</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -22430,16 +22430,16 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
+        <v>0.07999999999999995</v>
+      </c>
+      <c r="G11">
         <v>0.07999999999999996</v>
-      </c>
-      <c r="G11">
-        <v>0.07999999999999995</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999999</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -22590,7 +22590,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.07988677506321405</v>
+        <v>0.08876308340357117</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -22618,7 +22618,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.01092598176687307</v>
+        <v>0.01213997974097008</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -22649,7 +22649,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -22674,10 +22674,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05573456650989712</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.0640577546276659</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -22711,13 +22711,13 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999995</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -22868,7 +22868,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.07951938107922364</v>
+        <v>0.08835486786580404</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -22896,7 +22896,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.01109358997370693</v>
+        <v>0.01232621108189658</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -22927,7 +22927,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -22952,10 +22952,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05573456650989712</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.06405775462766589</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -22989,13 +22989,13 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999999</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -23146,7 +23146,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08038272349104418</v>
+        <v>0.08931413721227131</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -23174,7 +23174,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.01069972594807107</v>
+        <v>0.01188858438674564</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -23205,7 +23205,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -23230,10 +23230,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05573456650989712</v>
       </c>
       <c r="E10">
-        <v>0.054449091433516</v>
+        <v>0.06405775462766589</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -23424,7 +23424,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.082158665014457</v>
+        <v>0.09128740557161888</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -23452,7 +23452,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.009889526578587715</v>
+        <v>0.01098836286509746</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -23483,7 +23483,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2845374529798004</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -23508,10 +23508,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05573456650989712</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.0640577546276659</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -23551,7 +23551,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999995</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -23702,7 +23702,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08432909889085383</v>
+        <v>0.09369899876761535</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -23730,7 +23730,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.008899356499798875</v>
+        <v>0.009888173888665416</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -23761,7 +23761,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -23786,10 +23786,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05573456650989712</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.0640577546276659</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -23823,13 +23823,13 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -23980,7 +23980,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08626657550313609</v>
+        <v>0.09585175055904009</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -24008,7 +24008,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.00801546347237345</v>
+        <v>0.008906070524859389</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -24039,7 +24039,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -24064,10 +24064,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05573456650989712</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.0640577546276659</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -24107,7 +24107,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -24258,7 +24258,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08748087204142635</v>
+        <v>0.09720096893491817</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -24286,7 +24286,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007461491240338475</v>
+        <v>0.008290545822598305</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -24317,7 +24317,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -24342,10 +24342,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05573456650989712</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.0640577546276659</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -24379,10 +24379,10 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
-        <v>0.04000000000000004</v>
+        <v>0.04000000000000003</v>
       </c>
       <c r="I11">
         <v>0.09999999999999998</v>
@@ -24536,7 +24536,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08798627835037567</v>
+        <v>0.09776253150041742</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -24564,7 +24564,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007230920657103975</v>
+        <v>0.008034356285671083</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -24595,7 +24595,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2845374529798004</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -24620,10 +24620,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05573456650989714</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.0640577546276659</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -24654,7 +24654,7 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
@@ -24814,7 +24814,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08812350193726595</v>
+        <v>0.09791500215251772</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -24842,7 +24842,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007168318109603933</v>
+        <v>0.007964797899559926</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -24873,7 +24873,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -24898,10 +24898,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05573456650989712</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.06405775462766589</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -24938,10 +24938,10 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="H11">
-        <v>0.04000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999996</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -25092,7 +25092,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.1015520787509205</v>
+        <v>0.1128356430565783</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.001042089107100433</v>
+        <v>0.001157876785667147</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -25151,7 +25151,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -25176,10 +25176,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05573456650989712</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.0640577546276659</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -25210,10 +25210,10 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
@@ -25370,7 +25370,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08815976318961725</v>
+        <v>0.09795529243290807</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -25398,7 +25398,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007151775423144731</v>
+        <v>0.007946417136827479</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -25429,7 +25429,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -25454,10 +25454,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05573456650989713</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.0640577546276659</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -25488,7 +25488,7 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
@@ -25497,7 +25497,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999999</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
